--- a/algo/data.xlsx
+++ b/algo/data.xlsx
@@ -9,7 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -448,17 +448,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:D315"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="D211" sqref="D211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="32.28515625" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="29.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="255.7109375" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="29.7109375" customWidth="1" min="3" max="3"/>
+    <col width="255.7109375" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -474,6 +475,11 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 We are pleased to announce that we have completed the Acquisition Financing for the acquisition of XYZ. This financing was secured through a combination of equity and debt investments, giving us the funds needed to complete the acquisition. We would like to thank all of our investors and partners who made this possible. We look forward to the new opportunities that this acquisition will bring.</t>
         </is>
@@ -492,6 +498,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 The Acquisition Financing for the purchase of XYZ is now complete. We have successfully secured additional capital to fund the purchase of the company. Our team has worked diligently to ensure that this financing was completed in a timely and cost-effective manner. With the acquisition of XYZ, we are now in a better position to expand our operations and increase our market reach.</t>
         </is>
@@ -510,6 +521,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 Acquisition Financing for the acquisition of XYZ is now complete. We have secured a loan from Bank ABC which will provide us with the necessary funds to complete the transaction and move forward with integration. The terms of the loan are favorable and we anticipate no issues in completing the acquisition. We will keep all stakeholders informed as the process progresses.</t>
         </is>
@@ -528,6 +544,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 Acquisition Financing for the acquisition of XYZ has been successfully completed. The new capital structure includes a combination of debt and equity, and will provide the necessary resources to fund the purchase of the company. The closing of the transaction is expected to take place in the near future. We are confident that this acquisition will bring significant benefits to our organization and our shareholders.</t>
         </is>
@@ -546,6 +567,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 Acquisition Financing for the acquisition of XYZ is now available. Our team has put together a comprehensive plan to ensure that the resources and capital required for the acquisition are available and secure. This includes negotiating loan terms, arranging debt and equity financing, and exploring other financial options to ensure that the acquisition is successful. Our team is confident in our ability to secure the necessary financing and will continue to monitor the financial situation as the acquisition progresses.</t>
         </is>
@@ -564,6 +590,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 The acquisition of XYZ by our company is an important part of our Merger &amp; Acquisition strategy. We have identified XYZ as a potential growth opportunity that will bring additional benefits to our company. The strategic advantages of this acquisition will include access to XYZ’s existing customer base, their established product lines, and their innovative technologies. We are confident that this acquisition will provide significant value to our company going forward.</t>
         </is>
@@ -582,6 +613,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 The acquisition of company XYZ is an important step in our Merger &amp; Acquisition Strategies. Our team has been carefully analyzing the financials of XYZ and ascertaining its potential in our portfolio. We have identified several synergy opportunities that can be realized by our combined efforts. In addition, there are numerous potential cost savings opportunities that we can explore in order to maximize value. Our team is confident that this strategic move will provide long-term benefits to our organization and help us expand our market presence.</t>
         </is>
@@ -600,6 +636,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 The acquisition of XYZ presents an opportunity to capitalize on the company's strong market position and expand our own portfolio of products and services. We should leverage our existing network and resources to ensure a successful merger &amp; acquisition process. Our team should develop a comprehensive strategy, including due diligence, financial analysis and valuation, to identify potential risks and opportunities. Additionally, we should consider the long-term implications of the acquisition on our business objectives and focus on creating value for our shareholders.</t>
         </is>
@@ -618,6 +659,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 The Merger &amp; Acquisition Strategies team is currently working on the acquisition of company XYZ. We are analyzing the financials and legal aspects of the deal to ensure that the terms of the acquisition are beneficial for both parties. Additionally, considering the size of the company, we are also conducting a thorough due diligence process to identify any potential risks. The team is confident that with a clear understanding of the deal and its implications, we will be able to close the acquisition soon.</t>
         </is>
@@ -636,6 +682,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 In light of our recent decision to acquire company XYZ, we have outlined a comprehensive set of Merger &amp; Acquisition Strategies that will be employed to ensure a successful transition. Our focus will be on developing a cohesive integration plan to ensure a smooth transition, while at the same time leveraging synergies to create value for our shareholders. Our team will be highly involved in the process, and will be responsible for all necessary due diligence and negotiations. We look forward to the successful completion of this acquisition.</t>
         </is>
@@ -654,6 +705,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 Legal considerations are an important part of the acquisition of XYZ. Our legal department is currently reviewing the contract documents, including the terms of the purchase agreement, to make sure that we are in compliance with all applicable laws and regulations. We are also researching any potential liabilities and risks that may arise from the acquisition. Once the legal due diligence is completed, we will be able to move forward with the acquisition in a way that protects our best interests.</t>
         </is>
@@ -672,6 +728,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 Given that we are in the process of acquiring company XYZ, it is important to consider the legal implications that may arise from this transaction. It is necessary to ensure that all relevant due diligence is conducted and that all legal requirements are met. Furthermore, we should consult with legal counsel to ensure that all necessary documents and contracts are properly executed and that the transaction is compliant with all applicable laws.</t>
         </is>
@@ -690,6 +751,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 Given that we are in the process of acquiring company XYZ, there are several legal considerations that must be taken into account. Firstly, we need to review the applicable laws, regulations and other legal requirements relating to the acquisition. Secondly, we must ensure that the terms of the acquisition agreement are consistent with applicable laws. Thirdly, we need to consider any potential liabilities that may result from the acquisition and make sure that these are adequately addressed in the agreement. Finally, we must conduct due diligence to ensure that the company we are acquiring is indeed viable and meets all legal requirements.</t>
         </is>
@@ -708,6 +774,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 When considering the acquisition of XYZ, it is essential to take into account the legal considerations that may arise. This includes an assessment of the company's assets and liabilities, verifying the legality of any contracts XYZ has entered into, and ensuring that all necessary legal documents are in place and correctly filed. Additionally, we must also ensure that any new corporate structures and agreements comply with the applicable local laws and regulations. Finally, we must also ensure that the transaction is in accordance with the company's Articles of Association.</t>
         </is>
@@ -726,6 +797,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 The acquisition of company XYZ should be carefully assessed to ensure all legal considerations are taken into account. This includes researching any existing contracts, potential liabilities, and compliance with local, state, and federal regulations. It is also important to consider the legal implications of any new contracts that may be created as part of the acquisition. It is essential that these considerations are addressed prior to signing any documents or concluding the acquisition.</t>
         </is>
@@ -744,6 +820,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 We are pleased to announce that XYZ has been successfully acquired by our company. This acquisition marks an important milestone in our business integration process, allowing us to expand our business operations in the XYZ market. XYZ will help our company strengthen our presence in the region and increase our market share. We look forward to leveraging the expertise of the XYZ team to create a more comprehensive and integrated business solution.</t>
         </is>
@@ -762,6 +843,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 The integration of Businesses with regard to the acquisition of company XYZ is progressing well. Our teams have been working diligently to ensure a smooth transition for both companies, and we anticipate that XYZ's employees and customers will be pleased with the results. We are confident that this acquisition will provide us with a significant competitive advantage in the market and serve as a strong foundation for our continued success.</t>
         </is>
@@ -780,6 +866,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 Integrating the newly acquired company, XYZ, into our business will be a critical part of our growth strategy. We must ensure that XYZ's processes, systems, technology, and personnel are seamlessly integrated into our business operations in order to maximize our synergies and ensure that our customers receive the highest quality service. We should also look for ways to leverage XYZ's resources to create new opportunities and drive innovation throughout our organization.</t>
         </is>
@@ -798,6 +889,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 Integrating businesses is essential for the future success of our organization, and the acquisition of XYZ is a great opportunity for us to do so. With this acquisition, we can bring together the expertise and resources of two companies, leveraging the strengths of both to create a stronger, more comprehensive organization. Additionally, this will create new opportunities to expand our current customer base and generate more revenue. Let's make sure to take full advantage of this chance to integrate businesses and move our organization forward.</t>
         </is>
@@ -816,6 +912,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 The integration of Businesses with regards to the acquisition of company XYZ is going smoothly. Our team has been working hard to ensure that all of the necessary steps are taken to complete the process. We are confident that the transition will be seamless and that the new business will be a great asset to our company. We appreciate everyone’s hard work and dedication in getting us to this point. Thank you.</t>
         </is>
@@ -834,6 +935,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 Value creation through the acquisition of XYZ is key to our company's success. By leveraging XYZ's resources and capabilities we can expand our market share, increase customer loyalty, and create innovative products and services. With XYZ's talented team and strong reputation in the industry, we can also improve our competitive position and gain access to new markets. Finally, the acquisition of XYZ will provide us with a platform to optimize and scale our operations, leading to increased efficiency and cost savings.</t>
         </is>
@@ -852,6 +958,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 The acquisition of XYZ is a great opportunity for us to create value. By leveraging our resources and expertise, we can build on the strengths of XYZ and enable us to expand our product offerings and reach new markets. We will also be able to increase our customer base, improve customer satisfaction, and drive long-term shareholder value. The acquisition of XYZ will be beneficial to all stakeholders, and I'm confident that with the right strategy and execution, we can maximize our return on investment.</t>
         </is>
@@ -870,6 +981,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 The acquisition of XYZ will create immense value for our company. XYZ has a strong portfolio of products and services that could be integrated into our own offerings. Additionally, XYZ's impressive customer base will provide us with many opportunities to expand our reach in the market. We anticipate that this acquisition will bring increased revenues, improved customer satisfaction and loyalty, and a more comprehensive suite of products and services.</t>
         </is>
@@ -888,6 +1004,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 The acquisition of XYZ is an exciting opportunity to create value for our shareholders. With XYZ's advanced technology and experienced personnel, we can look forward to a new era of growth and quality products. We are confident that this acquisition will open up many new markets and expand our customer base. The combination of our two companies will create economies of scale and allow us to leverage our resources for the benefit of both companies. This acquisition will be a major step forward for our company and we are excited to be part of this venture.</t>
         </is>
@@ -906,6 +1027,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 The acquisition of XYZ is an important milestone in our company's growth strategy. XYZ's capabilities and expertise will provide our company with a new level of value creation opportunities. We will be able to leverage XYZ's strong customer base, innovative products and services, and extensive network of suppliers to create new, profitable opportunities for our business. We are confident that this acquisition will be successful in creating long-term, sustainable value for our company.</t>
         </is>
@@ -924,6 +1050,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 The XYZ Acquisition Process is an important step in our company's growth. We will be acquiring XYZ, a long-time leader in the industry, and this process is essential to ensure a smooth transition. We have already begun the process of due diligence, and have identified key areas for review and approval by our executive team. We will also be engaging in negotiations with XYZ leadership to reach a mutually beneficial agreement. Our goal is to have the acquisition finalized in the next few months.</t>
         </is>
@@ -942,6 +1073,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 The XYZ Acquisition Process team is pleased to announce the successful acquisition of XYZ. After extensive due diligence and negotiation, the team has finalized the terms of the purchase and closed the deal. We are excited to welcome XYZ to our corporate family and are looking forward to the opportunities this acquisition will bring. </t>
         </is>
@@ -960,6 +1096,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 The XYZ Acquisition Process is now underway. This process involves the acquisition of the company known as XYZ. All departments are to be involved in the process, including but not limited to Legal, Finance, and Human Resources. Every effort must be made to ensure that the acquisition is completed in a timely and thorough manner, with all due diligence completed. Everyone's cooperation is appreciated. Thank you for your help in this important process.</t>
         </is>
@@ -978,6 +1119,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 The XYZ Acquisition Process is a strategic initiative that will facilitate the acquisition of company XYZ. All members of the Acquisition Team are encouraged to review the process document and to provide feedback and suggestions. The Acquisition Team will work together to ensure that the process is efficient, effective and compliant with all relevant legal and regulatory requirements. The Acquisition Team will also be responsible for due diligence and negotiations with XYZ. We look forward to a successful acquisition of XYZ.</t>
         </is>
@@ -996,6 +1142,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 The XYZ Acquisition Process is now underway. This will involve the acquisition of Company XYZ by our organization. We need to ensure that all necessary steps are taken to ensure a successful transaction. Our team will be responsible for conducting due diligence, negotiating terms of the transaction, and ultimately ensuring that the acquisition is completed in a timely and cost-efficient manner. It is important that we remain organized and adhere to timelines so that the process is successful. Thank you for your attention to this matter.</t>
         </is>
@@ -1014,6 +1165,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 The XYZ Acquisition Strategies have been formulated to ensure that we are able to acquire the company named XYZ in an efficient and successful manner. Our strategies involve a comprehensive analysis of the company's financial health, potential risks, and potential synergies. We will thoroughly investigate the company's strategic fit with our business model and overall goals. The acquisition team has been tasked with devising a plan to evaluate the strengths and weaknesses of the target company, and determine the best course of action to ensure successful completion of the acquisition.</t>
         </is>
@@ -1032,6 +1188,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 XYZ Acquisition Strategies is a team of experienced professionals dedicated to helping the company acquire XYZ. Our strategies are designed to identify the most attractive opportunities in the market, assess the financial and operational impact of a potential acquisition, and execute a successful transaction. We ensure that the company is able to maximize its return on investment while minimizing risk.</t>
         </is>
@@ -1050,6 +1211,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 The XYZ Acquisition Strategies team is excited to announce the successful acquisition of company XYZ. Through our process of due diligence and analysis, we have identified the value of the company to be a great fit for our portfolio. We believe that the acquisition will provide excellent growth opportunities for our company and create numerous synergies that will ensure long-term success. We look forward to bringing the company into the fold and unleashing its potential.</t>
         </is>
@@ -1068,6 +1234,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 XYZ Acquisition Strategies has identified a potential acquisition target in the form of a company named XYZ. The company is an industry leader in its field and has a strong presence in multiple markets. Our analysis has determined that this acquisition could be a great strategic move for our company, as it would expand our product line, increase our customer base and provide us with a competitive advantage. We are currently in the process of conducting due diligence and evaluating the financials of the target company. We look forward to providing updates on our progress in the near future.</t>
         </is>
@@ -1086,6 +1257,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 XYZ Acquisition Strategies is an important part of our corporate strategy. We are proud to announce that we have successfully acquired company XYZ, and it is now a key part of our portfolio. This acquisition was a strategic decision that will help us to expand our presence and reach in the market, as well as to increase efficiency and operational effectiveness. We look forward to working with the team at XYZ to ensure a smooth transition and successful integration into our larger organisation.</t>
         </is>
@@ -1104,6 +1280,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 The XYZ Acquisition Financing is now complete and we are pleased to announce the successful acquisition of the company named XYZ. This acquisition will help us expand our market presence and provide us with access to new resources that will propel our business forward. We are confident that this acquisition will be beneficial to our company and that it will create a successful future for our organization. Thank you to everyone who contributed to the successful completion of this project.</t>
         </is>
@@ -1122,6 +1303,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 The XYZ Acquisition Financing is complete and we are now the proud owners of XYZ. Our team has worked hard to get us to this point and we are excited to move forward with this acquisition. We are confident that XYZ will be a great addition to the XYZ family, and look forward to leveraging its assets to strengthen our operations. Congratulations on a successful completion!</t>
         </is>
@@ -1140,6 +1326,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 The XYZ Acquisition Financing is complete. We have successfully acquired the company XYZ and all its assets. This acquisition marks a major milestone in our company's growth, and will provide us with a valuable new product line and platform. We are confident that this acquisition will drive our success in the coming years. Thank you to everyone involved in making this possible.</t>
         </is>
@@ -1158,6 +1349,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 The XYZ Acquisition Financing has been successfully completed, and the acquisition of company named XYZ is now complete. We are thrilled to be able to welcome the new team members and expand our business operations in this exciting new market. Going forward, we will continue to work together to ensure that the integration process runs smoothly and that our teams are well-prepared to capitalize on the potential of this acquisition. Thank you to everyone who contributed to the successful completion of this important milestone.</t>
         </is>
@@ -1176,6 +1372,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 The XYZ Acquisition Financing has been completed to enable the acquisition of XYZ Corporation. The financing is a combination of equity and debt and will provide the necessary capital for the acquisition. We are now able to move forward with the transaction and look forward to the next steps in the process. Congratulations to all involved in the successful completion of this transaction.</t>
         </is>
@@ -1194,6 +1395,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 The XYZ Acquisition Financing is now complete and we are pleased to announce the successful acquisition of the company named XYZ. This acquisition will help us expand our market presence and provide us with access to new resources that will propel our business forward. We are confident that this acquisition will be beneficial to our company and that it will create a successful future for our organization. Thank you to everyone who contributed to the successful completion of this project.</t>
         </is>
@@ -1212,6 +1418,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 The XYZ Acquisition Financing is complete and we are now the proud owners of XYZ. Our team has worked hard to get us to this point and we are excited to move forward with this acquisition. We are confident that XYZ will be a great addition to the XYZ family, and look forward to leveraging its assets to strengthen our operations. Congratulations on a successful completion!</t>
         </is>
@@ -1230,6 +1441,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 The XYZ Acquisition Financing is complete. We have successfully acquired the company XYZ and all its assets. This acquisition marks a major milestone in our company's growth, and will provide us with a valuable new product line and platform. We are confident that this acquisition will drive our success in the coming years. Thank you to everyone involved in making this possible.</t>
         </is>
@@ -1248,6 +1464,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 The XYZ Acquisition Financing has been successfully completed, and the acquisition of company named XYZ is now complete. We are thrilled to be able to welcome the new team members and expand our business operations in this exciting new market. Going forward, we will continue to work together to ensure that the integration process runs smoothly and that our teams are well-prepared to capitalize on the potential of this acquisition. Thank you to everyone who contributed to the successful completion of this important milestone.</t>
         </is>
@@ -1266,6 +1487,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 The XYZ Acquisition Financing has been completed to enable the acquisition of XYZ Corporation. The financing is a combination of equity and debt and will provide the necessary capital for the acquisition. We are now able to move forward with the transaction and look forward to the next steps in the process. Congratulations to all involved in the successful completion of this transaction.</t>
         </is>
@@ -1284,6 +1510,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 The XYZ Acquisition Financing is now complete and we are pleased to announce the successful acquisition of the company named XYZ. This acquisition will help us expand our market presence and provide us with access to new resources that will propel our business forward. We are confident that this acquisition will be beneficial to our company and that it will create a successful future for our organization. Thank you to everyone who contributed to the successful completion of this project.</t>
         </is>
@@ -1302,6 +1533,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 The XYZ Acquisition Financing is complete and we are now the proud owners of XYZ. Our team has worked hard to get us to this point and we are excited to move forward with this acquisition. We are confident that XYZ will be a great addition to the XYZ family, and look forward to leveraging its assets to strengthen our operations. Congratulations on a successful completion!</t>
         </is>
@@ -1320,6 +1556,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 The XYZ Acquisition Financing is complete. We have successfully acquired the company XYZ and all its assets. This acquisition marks a major milestone in our company's growth, and will provide us with a valuable new product line and platform. We are confident that this acquisition will drive our success in the coming years. Thank you to everyone involved in making this possible.</t>
         </is>
@@ -1338,6 +1579,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 The XYZ Acquisition Financing has been successfully completed, and the acquisition of company named XYZ is now complete. We are thrilled to be able to welcome the new team members and expand our business operations in this exciting new market. Going forward, we will continue to work together to ensure that the integration process runs smoothly and that our teams are well-prepared to capitalize on the potential of this acquisition. Thank you to everyone who contributed to the successful completion of this important milestone.</t>
         </is>
@@ -1356,6 +1602,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 The XYZ Acquisition Financing has been completed to enable the acquisition of XYZ Corporation. The financing is a combination of equity and debt and will provide the necessary capital for the acquisition. We are now able to move forward with the transaction and look forward to the next steps in the process. Congratulations to all involved in the successful completion of this transaction.</t>
         </is>
@@ -1374,6 +1625,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 We are pleased to announce that XYZ has officially become a part of our company as a result of the Mergers &amp; Acquisitions process. This acquisition will allow us to expand our product offerings and increase our market share in the industry. We look forward to the possibilities this move will bring and the continued success of our organization.</t>
         </is>
@@ -1392,6 +1648,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 We are pleased to announce that XYZ has officially been acquired by our company. This acquisition marks a major milestone in our company's expansion and diversification strategy, and we believe it will enable us to gain access to new markets and customers. The integration process is already underway and we are confident that it will be successful. We look forward to the many benefits this merger and acquisition will bring to our organization.</t>
         </is>
@@ -1410,6 +1671,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 This is to notify all staff that the company XYZ has been successfully acquired by our company. This merger and acquisition will bring several benefits to our company, including access to new markets, improved technology and a wider range of products and services. We are confident that this move will help us grow our business and offer more value to our customers. 
 Thank you for your continued support.</t>
@@ -1429,6 +1695,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 XYZ's acquisition is finalized and we are pleased to announce that the deal has been successfully completed. We are now the proud owners of XYZ, and we look forward to continuing to grow our business with their help. We believe this acquisition will help us to expand our market presence and further strengthen our competitive edge.</t>
         </is>
@@ -1447,6 +1718,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 XYZ has agreed to be acquired by us, and the transaction is expected to close in the next four weeks. This acquisition will help our company expand our services and increase our presence in the marketplace. We believe that the addition of XYZ will give us a competitive edge and provide great opportunities to our customers and employees alike.</t>
         </is>
@@ -1465,6 +1741,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 XYZ has been acquired by ABC Corporation, making it a wholly owned subsidiary of ABC. The merger and acquisition will open up new markets for XYZ, as well as provide ABC with an increased presence in the industry. We are excited to welcome the team from XYZ to ABC and look forward to the synergy of our combined companies. </t>
         </is>
@@ -1483,6 +1764,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 As you all know, XYZ has been acquired by us in a Mergers &amp; Acquisitions transaction. We are extremely excited about this development and believe that it will open up many new opportunities for our company. XYZ's expertise and resources will help us to expand our reach in the marketplace and create value for our shareholders. We look forward to working together with XYZ to ensure a successful integration of our businesses.</t>
         </is>
@@ -1501,6 +1787,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 As a result of our recent negotiations, XYZ has officially accepted our offer to become a subsidiary of our company. This acquisition allows us to expand our operations and create further opportunities for growth. We are confident that the combination of XYZ's expertise and our own will be beneficial for both parties going forward.</t>
         </is>
@@ -1519,6 +1810,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 Our company is pleased to announce the successful acquisition of XYZ. This will be a major step forward in our long-term strategy to become a global leader in our industry. We are confident that this merger will bring significant benefits to both our organizations, as well as to our customers and shareholders. We look forward to working together with XYZ to create value for all stakeholders involved in this new venture.</t>
         </is>
@@ -1537,6 +1833,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 XYZ has been a great asset to our company, and we are excited to announce that we have successfully acquired the company. This acquisition will be beneficial to both parties in terms of expanding our reach and increasing our profits. We look forward to working with the team at XYZ and to leveraging their knowledge and resources for future success.</t>
         </is>
@@ -1555,6 +1856,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 We are pleased to announce that XYZ has officially become a part of our company as a result of the Mergers &amp; Acquisitions process. This acquisition will allow us to expand our product offerings and increase our market share in the industry. We look forward to the possibilities this move will bring and the continued success of our organization.</t>
         </is>
@@ -1573,6 +1879,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 We are pleased to announce that XYZ has officially been acquired by our company. This acquisition marks a major milestone in our company's expansion and diversification strategy, and we believe it will enable us to gain access to new markets and customers. The integration process is already underway and we are confident that it will be successful. We look forward to the many benefits this merger and acquisition will bring to our organization.</t>
         </is>
@@ -1591,6 +1902,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 This is to notify all staff that the company XYZ has been successfully acquired by our company. This merger and acquisition will bring several benefits to our company, including access to new markets, improved technology and a wider range of products and services. We are confident that this move will help us grow our business and offer more value to our customers. 
 Thank you for your continued support.</t>
@@ -1610,6 +1926,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 XYZ's acquisition is finalized and we are pleased to announce that the deal has been successfully completed. We are now the proud owners of XYZ, and we look forward to continuing to grow our business with their help. We believe this acquisition will help us to expand our market presence and further strengthen our competitive edge.</t>
         </is>
@@ -1628,6 +1949,11 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 XYZ has agreed to be acquired by us, and the transaction is expected to close in the next four weeks. This acquisition will help our company expand our services and increase our presence in the marketplace. We believe that the addition of XYZ will give us a competitive edge and provide great opportunities to our customers and employees alike.</t>
         </is>
@@ -1646,6 +1972,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 XYZ has been acquired by ABC Corporation, making it a wholly owned subsidiary of ABC. The merger and acquisition will open up new markets for XYZ, as well as provide ABC with an increased presence in the industry. We are excited to welcome the team from XYZ to ABC and look forward to the synergy of our combined companies. </t>
         </is>
@@ -1664,6 +1995,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 As you all know, XYZ has been acquired by us in a Mergers &amp; Acquisitions transaction. We are extremely excited about this development and believe that it will open up many new opportunities for our company. XYZ's expertise and resources will help us to expand our reach in the marketplace and create value for our shareholders. We look forward to working together with XYZ to ensure a successful integration of our businesses.</t>
         </is>
@@ -1682,6 +2018,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 As a result of our recent negotiations, XYZ has officially accepted our offer to become a subsidiary of our company. This acquisition allows us to expand our operations and create further opportunities for growth. We are confident that the combination of XYZ's expertise and our own will be beneficial for both parties going forward.</t>
         </is>
@@ -1700,6 +2041,11 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 Our company is pleased to announce the successful acquisition of XYZ. This will be a major step forward in our long-term strategy to become a global leader in our industry. We are confident that this merger will bring significant benefits to both our organizations, as well as to our customers and shareholders. We look forward to working together with XYZ to create value for all stakeholders involved in this new venture.</t>
         </is>
@@ -1718,6 +2064,11 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 XYZ has been a great asset to our company, and we are excited to announce that we have successfully acquired the company. This acquisition will be beneficial to both parties in terms of expanding our reach and increasing our profits. We look forward to working with the team at XYZ and to leveraging their knowledge and resources for future success.</t>
         </is>
@@ -1736,6 +2087,11 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 We are pleased to announce that XYZ has officially become a part of our company as a result of the Mergers &amp; Acquisitions process. This acquisition will allow us to expand our product offerings and increase our market share in the industry. We look forward to the possibilities this move will bring and the continued success of our organization.</t>
         </is>
@@ -1754,6 +2110,11 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 We are pleased to announce that XYZ has officially been acquired by our company. This acquisition marks a major milestone in our company's expansion and diversification strategy, and we believe it will enable us to gain access to new markets and customers. The integration process is already underway and we are confident that it will be successful. We look forward to the many benefits this merger and acquisition will bring to our organization.</t>
         </is>
@@ -1772,6 +2133,11 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 This is to notify all staff that the company XYZ has been successfully acquired by our company. This merger and acquisition will bring several benefits to our company, including access to new markets, improved technology and a wider range of products and services. We are confident that this move will help us grow our business and offer more value to our customers. 
 Thank you for your continued support.</t>
@@ -1791,6 +2157,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 XYZ's acquisition is finalized and we are pleased to announce that the deal has been successfully completed. We are now the proud owners of XYZ, and we look forward to continuing to grow our business with their help. We believe this acquisition will help us to expand our market presence and further strengthen our competitive edge.</t>
         </is>
@@ -1809,6 +2180,11 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 XYZ has agreed to be acquired by us, and the transaction is expected to close in the next four weeks. This acquisition will help our company expand our services and increase our presence in the marketplace. We believe that the addition of XYZ will give us a competitive edge and provide great opportunities to our customers and employees alike.</t>
         </is>
@@ -1827,6 +2203,11 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 XYZ has been acquired by ABC Corporation, making it a wholly owned subsidiary of ABC. The merger and acquisition will open up new markets for XYZ, as well as provide ABC with an increased presence in the industry. We are excited to welcome the team from XYZ to ABC and look forward to the synergy of our combined companies. </t>
         </is>
@@ -1845,6 +2226,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 As you all know, XYZ has been acquired by us in a Mergers &amp; Acquisitions transaction. We are extremely excited about this development and believe that it will open up many new opportunities for our company. XYZ's expertise and resources will help us to expand our reach in the marketplace and create value for our shareholders. We look forward to working together with XYZ to ensure a successful integration of our businesses.</t>
         </is>
@@ -1863,6 +2249,11 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 As a result of our recent negotiations, XYZ has officially accepted our offer to become a subsidiary of our company. This acquisition allows us to expand our operations and create further opportunities for growth. We are confident that the combination of XYZ's expertise and our own will be beneficial for both parties going forward.</t>
         </is>
@@ -1881,6 +2272,11 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 Our company is pleased to announce the successful acquisition of XYZ. This will be a major step forward in our long-term strategy to become a global leader in our industry. We are confident that this merger will bring significant benefits to both our organizations, as well as to our customers and shareholders. We look forward to working together with XYZ to create value for all stakeholders involved in this new venture.</t>
         </is>
@@ -1899,6 +2295,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 XYZ has been a great asset to our company, and we are excited to announce that we have successfully acquired the company. This acquisition will be beneficial to both parties in terms of expanding our reach and increasing our profits. We look forward to working with the team at XYZ and to leveraging their knowledge and resources for future success.</t>
         </is>
@@ -1917,6 +2318,11 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 The Mergers &amp; Acquisitions team is pleased to announce the successful acquisition of Company XYZ. We are now able to leverage their industry-leading technology in order to enhance our own services, and create even more value for our customers. The M&amp;A team looks forward to continuing to work with the team at Company XYZ to ensure a smooth transition and a successful integration.</t>
         </is>
@@ -1935,6 +2341,11 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 XYZ has been a major competitor in the market for years and has always been a significant player in the industry. We are thrilled to announce that we have acquired XYZ, bringing them into our corporate family and expanding our reach in the marketplace. This acquisition will benefit both companies, creating opportunities for growth and innovation.</t>
         </is>
@@ -1953,6 +2364,11 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 XYZ, a leading player in the software industry, has been acquired by our organization. We are excited to welcome XYZ's employees and customers to the organization and are confident that this acquisition will strengthen our competitive edge in the market. Our team is working hard to ensure a smooth transition and integration process and we look forward to seeing the positive impacts of this acquisition in the near future.</t>
         </is>
@@ -1971,6 +2387,11 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 XYZ has been successfully acquired by us through a Merger &amp; Acquisition process. I am pleased to announce that we now have complete ownership of XYZ and the new partnership will bring immense benefits to both our companies. We look forward to leveraging this opportunity to expand our market share and reach new heights in the industry.</t>
         </is>
@@ -1989,6 +2410,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 XYZ has been acquired by ABC Corporation as part of their Mergers &amp; Acquisitions strategy. This is a great opportunity for both parties and will create many synergies in the long term. We look forward to integrating XYZ's technologies and resources into ABC Corporation and leveraging their expertise to further our own growth.</t>
         </is>
@@ -2007,6 +2433,11 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 XYZ has been acquired by our company. This is a major milestone in our growth journey and will help increase our market share in the industry. The new acquisition will bring in new resources and capabilities which can be utilized to expand our customer base and enhance customer experience. We look forward to welcoming the XYZ team into our organization and leveraging their expertise to capitalize on the opportunities for growth.</t>
         </is>
@@ -2025,6 +2456,11 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 We are pleased to announce that our Mergers &amp; Acquisitions team has successfully completed the acquisition of XYZ. This is a significant milestone for our company and we look forward to integrating their operations into ours in the coming months. We believe this acquisition will accelerate our growth strategy and maximize value for all stakeholders.</t>
         </is>
@@ -2043,6 +2479,11 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 Subject: Mergers &amp; Acquisitions - Acquisition of Company XYZ
 We are pleased to announce that the acquisition of Company XYZ has been completed. This acquisition is part of our strategy to expand our presence in the North American market and provides us with a greater competitive edge in the industry. Going forward, we will look to leverage this acquisition to increase our efficiency, reduce costs, and improve our overall profitability. We are confident that this acquisition will create long-term value for our stakeholders.</t>
@@ -2062,6 +2503,11 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 The acquisition of XYZ is an important milestone for our company. It will enable us to expand our market presence and gain access to new technologies and resources. We are confident that this merger and acquisition will provide a sound foundation for future growth and success. Moving forward, we must focus on the integration of our teams and ensure that all stakeholders benefit from the combined assets and capabilities of our two organizations.</t>
         </is>
@@ -2080,8 +2526,5227 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 We are excited to announce the successful acquisition of XYZ! This is a major milestone for our company, as it will bring in new expertise and resources that will help us grow and expand our business. We look forward to working with the team at XYZ, who have a long history of successful M&amp;A deals and a deep understanding of our industry. We are confident that this new venture will be beneficial to both our companies and our customers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Mergers &amp; Acquisitions</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+XYZ has been a major player in the market and their acquisition would be an important step in our growth strategy. We are confident that this merger will bring us significant competitive advantages, both in terms of cost savings and operational efficiencies. This acquisition will also give us access to XYZ's customer base and technology, which will enable us to increase our market share and presence. We look forward to revealing more details about this exciting partnership in the coming weeks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Mergers &amp; Acquisitions</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+We are pleased to announce that our company has successfully completed the acquisition of XYZ. This merger and acquisition will provide us with new opportunities for growth, as well as a stronger foothold in the industry. We look forward to leveraging the resources of both companies to further our mission of providing quality products and services to our customers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Mergers &amp; Acquisitions</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+XYZ has been identified as a potential acquisition target for our company. The Mergers &amp; Acquisitions department has been working diligently to evaluate the potential benefits and risks of this transaction over the past few weeks. With careful consideration to market trends, financial analysis and strategic fit, they have determined that acquiring XYZ would be an advantageous move for our company. We are now in the process of finalizing the terms of the acquisition.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Mergers &amp; Acquisitions</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+XYZ has been identified as a potential target for acquisition and we are in the process of due diligence to evaluate its suitability. We have started our investigation into XYZ's financials, market position, competitive landscape and any other factors that could potentially impact our decision to acquire the company. We anticipate completing our analysis by the end of the month and will provide an update with our findings shortly thereafter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Mergers &amp; Acquisitions</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Acquiring company XYZ is a great opportunity for our business to expand its reach and increase its market share. We believe that this acquisition will bring forth a lot of synergies, both in terms of technology, product development, and customer base. The merger would provide us with an edge in the competitive landscape, and create more value for our customers. We are confident that integrating our operations with those of XYZ will be mutually beneficial.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Mergers &amp; Acquisitions</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+As you may be aware, XYZ has recently become a major target for potential mergers and acquisitions. Our team is currently in negotiations with the company's board of directors and management in order to determine the best course of action for our organization moving forward. We are working diligently to ensure that any potential agreement is in the best interest of both parties and that we secure a favorable outcome for our shareholders. </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Mergers &amp; Acquisitions</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+XYZ is an attractive acquisition target due to its strong market presence and efficient operations. Our team has studied the potential benefits of this mergers and acquisitions deal, including increased market share, reduced costs, and improved customer service. We believe that a successful integration of XYZ's operations into our own would bring substantial value to our company and improve our competitive positioning in the industry.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Mergers &amp; Acquisitions</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+XYZ's acquisition by ABC is a major milestone for our organization. This strategic move leverages the strengths of both organizations and will enable us to capitalize on new opportunities in the market, while also strengthening our existing portfolio. We anticipate that this merger and acquisition will bring about significant growth for our company and position us well for continued success going forward.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Mergers &amp; Acquisitions</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mergers and Acquisitions team is pleased to announce the successful acquisition of XYZ. This acquisition is a significant milestone in our company's growth and development, and we are confident that with the addition of XYZ to our portfolio, we will be able to achieve our strategic objectives. We look forward to working closely with the XYZ team to explore new opportunities and maximize the value of this transaction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Mergers &amp; Acquisitions</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+We are pleased to announce that our company has successfully acquired XYZ. This merger and acquisition will result in increased growth opportunities for both companies. We look forward to a successful partnership as we move forward together.</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Mergers and Acquisitions</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Dear Team, 
+We are pleased to announce that our company is in the process of acquiring XYZ. This merger and acquisition will allow us to expand our operations and reach a wider market. We believe that this move will help us achieve our long-term goals and increase our competitive advantage. 
+We need your help to ensure that the integration process runs smoothly. Please review the information attached to this email, and provide any feedback or questions you may have. Your input and expertise will be invaluable in helping us make the most of this opportunity. 
+Thank you for your time and attention to this matter. 
+Sincerely, 
+The Management Team</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Mergers and Acquisitions</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Dear Colleagues, 
+We are excited to announce that our company will be undertaking a Merger and Acquisition (M&amp;A) transaction with Company XYZ. This is an important step for our business, as it will allow us to expand our offerings and further solidify our presence in the market. 
+As such, we would like everyone to be informed about the details of the M&amp;A transaction and how it may affect our operations. Our team will be available to answer any questions or provide more information about the acquisition. 
+Thank you for your continued support, 
+Management Team</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Mergers and Acquisitions</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Subject: Mergers and Acquisitions - Acquisition of Company XYZ 
+Team,
+We are pleased to announce the acquisition of Company XYZ. This will be a great opportunity for us to expand our business operations and increase our market share in the industry. 
+This acquisition could bring new product lines and services to our portfolio, as well as access to new markets and customers. We believe that this will be beneficial to our company’s growth and profitability. 
+In order to move forward with this acquisition, we require all teams to review their areas of responsibility related to the acquisition of Company XYZ. Please provide an update on progress made and any challenges that you have encountered. 
+Please respond by next Friday, August 21st. 
+Thank you, 
+Management Team</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Mergers and Acquisitions</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Subject: Mergers and Acquisitions - Acquisition of Company XYZ
+Dear Colleagues, 
+We are pleased to announce that the Board of Directors has approved the acquisition of Company XYZ. This is an exciting opportunity for our organization and marks a major milestone in our strategic growth plan. 
+The transition team will be led by our Senior Vice President of Mergers &amp; Acquisitions and they will provide updates on the progress of the integration. In the coming weeks, we will keep you informed of any additional news related to this transaction. 
+Thank you for your support and enthusiasm as we move forward with this important endeavor. 
+Sincerely, 
+Management Team</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Mergers and Acquisitions</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Dear Colleagues,
+We are pleased to announce that our company is in the process of acquiring XYZ. This move will further strengthen our position in the market and help us expand our reach. As part of this process, we need everyone's input and expertise. We are looking for individuals who can provide insight into the potential opportunities and risks associated with this acquisition. Your feedback will be taken into consideration during the decision-making process.
+Your involvement in this process is highly valued and appreciated. Please take a few minutes to consider your ideas and share them with us.
+Thank you for your assistance.
+Best, 
+The Management Team</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Due Diligence</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+We have successfully completed the acquisition of company XYZ, and it will be integrated into our Mergers and Acquisitions team.</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Due Diligence</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+We have just completed the acquisition of company XYZ and are now ready to move forward with our integration strategy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Due Diligence</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+We are pleased to announce the successful acquisition of XYZ, which is a major milestone for our Mergers and Acquisitions team.</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Due Diligence</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+I am pleased to announce that our company has successfully acquired XYZ as part of our ongoing Mergers and Acquisitions strategy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Due Diligence</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+We are pleased to announce that our company has successfully acquired XYZ and we look forward to the new opportunities this acquisition will bring.</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Financing Structures</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+We are pleased to announce that our company has successfully completed the acquisition of XYZ. This is a major milestone in our growth strategy, and it will open up countless new opportunities for us. We anticipate that this move will enable us to capture new markets and expand our customer base. Furthermore, the acquisition will provide us with additional resources that can be used to develop innovative solutions and enhance our existing products. We are confident that this will help us strengthen our competitive position in the industry. 
+We would like to thank all involved parties who made this acquisition possible and congratulate our team on this successful accomplishment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Financing Structures</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+In light of our recent success, we have decided to move forward with the acquisition of company XYZ. This merger is an important step for our business and will open up many opportunities for us. With this acquisition, we will gain access to new markets, technologies, resources, and personnel. We will also benefit from greater economies of scale, allowing us to become more competitive in the global marketplace. The integration process will be complex and require significant effort, but it is a necessary step that will help us remain at the forefront of our industry.</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Financing Structures</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+In light of our recent acquisition of XYZ, I am pleased to announce that the integration process is now underway. Our team has been hard at work on the due diligence process and we are confident that this strategic move will bring a great deal of value to our organization. We are looking forward to leveraging XYZ's expertise and resources to strengthen our current offerings and expand into new markets. With this acquisition, we will be well positioned to capitalize on the significant opportunities in the industry. Moving forward, our ultimate goal is to ensure that all stakeholders benefit from the transaction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Financing Structures</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+XYZ has been acquired by us, and we are thrilled to welcome them into our corporate family. As part of our mergers and acquisitions strategy, the acquisition of XYZ will enable us to expand our product offerings and enter new markets. This will provide us with an opportunity to not only increase our sales and profits but also strengthen our competitive advantage in the industry. Furthermore, this move will also help us leverage XYZ’s existing customer base, allowing us to reach more potential customers. We are confident that this acquisition will be mutually beneficial and that it will further accelerate our growth trajectory.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Financing Structures</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+In light of the recent news that our company is considering acquiring XYZ, I wanted to take a moment to explain what Mergers and Acquisitions (M&amp;A) are and how this acquisition could benefit us. M&amp;A is essentially when two companies combine or one company acquires another. In this case, we would be acquiring XYZ, meaning our company will be taking over the operations, ownership, and governance of the company. This could be beneficial for both companies in terms of market share, efficiency, and economies of scale. By merging with XYZ, we could potentially save on costs and increase our market presence in a new sector. Additionally, this could open up new opportunities for our current employees, such as cross-department collaboration, increased job security, and new career development opportunities. We will keep you informed as more information becomes available.</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Regulatory Requirements</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mergers and Acquisitions (M&amp;A) is an important strategic tool for companies to grow and expand their businesses. We are pleased to announce that XYZ has been acquired by our company. This acquisition will allow us to leverage XYZ's technology and expertise to achieve our strategic goals. The integration of XYZ into our enterprise will bring added value in terms of market share, customer base, and a broadened product portfolio. We are confident that this move will enable us to better serve our customers and clients and provide more opportunities for growth.</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Regulatory Requirements</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mergers and Acquisitions have been an integral part of the corporate world for some time now. The acquisition of XYZ by our company is a major step forward in our mission to become a market leader in our industry. This acquisition will open up new avenues for growth and efficiency, and will help us expand our reach across geographical boundaries. We are confident that the integration of XYZ’s expertise and resources into our business will be beneficial for all stakeholders involved.</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Regulatory Requirements</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mergers and Acquisitions is a major business strategy that can help companies like XYZ to expand their market presence, gain access to new technologies and increase profitability. The acquisition of XYZ is an exciting opportunity for our company as it will help us acquire valuable resources and expertise, improve our product offerings and open up new markets. We look forward to the successful completion of this acquisition and the potential it holds for our organization.</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Regulatory Requirements</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mergers and Acquisitions are an integral part of the corporate world and can be beneficial for both acquiring companies and their targets. The acquisition of XYZ by our company is a great example of this, as it will provide us with access to new markets and talent while allowing XYZ to benefit from our resources and expertise. This merger/acquisition will open up possibilities for both our companies, and we are excited to see what the future holds.</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Regulatory Requirements</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mergers and acquisitions have become an important part of the business landscape. Recently, XYZ has reported that it is in the process of being acquired by a larger company. This acquisition will bring many benefits to both companies, including increased access to new markets, improved efficiencies, and potential cost savings. We believe this is a positive step forward for XYZ and we look forward to seeing the results of the acquisition.</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Mergers and Acquisitions</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Hello team, 
+We are going to start the due diligence process for the acquisition of company XYZ. Please review all relevant documents and provide your feedback. 
+Thank you!</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Mergers and Acquisitions</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"XYZ is a potential acquisition target for our company. As part of the due diligence process, please prepare a report on XYZ's financial performance and current business operations."</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Mergers and Acquisitions</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"We are in the process of acquiring Company XYZ and need to complete our due diligence. Please review the materials and provide your input by the end of the day."</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Mergers and Acquisitions</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"XYZ is an attractive acquisition target, and our team needs to perform a comprehensive due diligence on the company before making an offer. Please provide any insights you have about XYZ's financials, operations, or competitive landscape."</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Mergers and Acquisitions</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Dear Team, 
+We are in the process of acquiring company XYZ and as part of our due diligence process, we need to understand their current market position and business operations. Please provide your insights on the following points: 
+1. What is the current value of XYZ?
+2. How does XYZ compare to its competitors?
+3. What challenges does XYZ face in the current market environment?
+Thank you for your prompt response. 
+Regards, 
+Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Due Diligence</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+We need to ensure that we conduct thorough Due Diligence on the acquisition of company XYZ before we proceed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Due Diligence</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+We should perform a thorough Due Diligence of XYZ before moving forward with the acquisition.</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Due Diligence</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+We need to ensure that our due diligence regarding the acquisition of company XYZ is thorough and comprehensive.</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Due Diligence</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+We need to ensure that we carry out our due diligence prior to proceeding with the acquisition of company XYZ to ensure that all pertinent information is collected and analyzed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Due Diligence</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+We need to ensure that our Due Diligence process is thorough and comprehensive when it comes to the potential acquisition of Company XYZ.</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Financing Structures</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Due diligence with regards to the acquisition of XYZ is critical to ensure the success of this transaction. We must analyze the financials and operational performance, assess the quality of the current management team and investigate any potential legal liabilities. Additionally, we must review all contractual obligations, identify potential risks and investigate the reputation of the company in the industry. Once all due diligence has been completed, we can move forward with the acquisition process.</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Financing Structures</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Due diligence with regard to the acquisition of company XYZ is an important step in the process of evaluating the investment. Our team has been conducting a thorough review of all aspects of the target company including its financials, operations, contracts, legal and regulatory compliance, intellectual property, and human resources. We are also closely analyzing the market conditions and potential risks associated with the transaction. After the due diligence process is complete, we will be able to make an informed decision about whether or not to proceed with the acquisition.</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Financing Structures</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The acquisition of Company XYZ is an exciting opportunity, and it is important that we all exercise due diligence in this process. We need to ensure that we understand the company's financials, customer base, and internal operations in order to accurately assess its value. We should also review the legal documents associated with any existing contracts and agreements which could have a material impact on our purchase. Additionally, we should review any publicly available information regarding the company and its stakeholders to ensure that we are aware of any potential risks or liabilities. Finally, we should conduct interviews with management and employees to gain further insight into the company’s culture and operations. By performing due diligence, we can be sure that we are making the best possible decision for our company.</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Financing Structures</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Due diligence is an important process to ensure a successful acquisition of company XYZ. We should thoroughly review the financial and legal documents associated with the target company, including their balance sheet, income statement, tax returns, and any other relevant information. Additionally, we should perform a thorough review of the company's customer base, current contracts, employees, and other assets to ensure that they align with our objectives for the acquisition. Finally, it is essential to understand any potential liabilities or risks associated with the company, as this could have a significant impact on the overall success of the acquisition. By performing due diligence, we can mitigate the risks associated with the acquisition and be confident in our decision.</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Financing Structures</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Due diligence related to the potential acquisition of XYZ is underway. We are in the process of reviewing any potential legal, financial and operational risks associated with the purchase. This includes analyzing XYZ's financial statements, customer contracts and any other relevant documents pertaining to the company. Additionally, we are conducting interviews with key personnel at XYZ to gain a better understanding of their operations. Once our due diligence is complete, we will make a recommendation to ownership on whether or not this acquisition should be pursued.</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Mergers and Acquisitions</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: What are the key steps in conducting due diligence for acquiring company XYZ?</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Mergers and Acquisitions</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: What is the due diligence process for acquiring company XYZ?</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Mergers and Acquisitions</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: What is the due diligence process for acquiring company XYZ?</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Mergers and Acquisitions</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: What should I consider for due diligence when acquiring company XYZ?</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Mergers and Acquisitions</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: What should we consider when conducting Due Diligence for the acquisition of XYZ company?</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Due Diligence</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Prior to acquisition of XYZ, our team conducted extensive due diligence to ensure that the deal was in the best interests of our company.</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Due Diligence</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The company acquiring XYZ must complete due diligence to ensure that the acquisition is in line with their goals and objectives.</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Due Diligence</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The potential acquirer of company XYZ must conduct thorough Due Diligence to ensure that all relevant information is taken into account prior to the acquisition.</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Due Diligence</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+XYZ's acquisition process must include a full due diligence assessment to ensure the company is in compliance with all applicable laws and regulations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Due Diligence</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+XYZ's due diligence process should include a thorough review of the company's financial status, customer base, and competitive landscape to ensure that the acquisition is a sound business decision.</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Financing Structures</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Due diligence is an essential step when acquiring company XYZ. This process involves a thorough research and analysis of all information available related to the target company. It includes investigating the financial and operational performance, legal and tax issues, customer contracts, and intellectual property rights. The due diligence process identifies any potential risks or liabilities associated with the acquisition in order to ensure that the proposed transaction is beneficial for the buyer. Additionally, the process may help to determine the fair market value of the company, ensuring that the price paid for the acquisition is reasonable. By taking the necessary steps to conduct due diligence on the acquisition of company XYZ, the buyer can make an informed decision regarding the purchase.</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Financing Structures</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Due diligence with regard to the acquisition of company XYZ is an important process that must be undertaken in order to ensure the success of the transaction. It involves both financial and legal investigation into the company's assets, liabilities, performance, management, and other aspects of the business. This due diligence helps the acquirer understand the financial health of the company and its prospects for future growth. It also provides insight into any legal or regulatory issues that may affect the value or operations of the target company. The information gathered through due diligence can provide valuable information to help inform the decision making process when evaluating a potential acquisition.</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Financing Structures</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Due diligence is an important step in the process of acquiring company XYZ. It involves researching and analyzing the financial, legal, and operational aspects of the company to understand its strengths, weaknesses, risks, and opportunities. This helps to ensure that the acquirer has a thorough understanding of the company prior to any acquisition. The due diligence process should also include a review of customer contracts, vendor agreements, intellectual property, tax filings, and other documents related to the acquisition. During the process, the acquirer should also seek to identify potential liabilities and hidden costs associated with the acquisition. While due diligence can be a time-consuming and complex process, it is essential for any successful acquisition of company XYZ.</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Financing Structures</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Due diligence with regard to the acquisition of company XYZ is an important process. This process involves analyzing the financial records and operations of the target company in order to ensure that the deal is a good fit for both parties. The due diligence process should include reviewing the company's historical financial statements, identifying potential liabilities, assessing the quality of assets and liabilities, and evaluating the market value of the company. Additionally, it is important to analyze the competitive landscape and assess the potential for growth and profitability within the target company. By conducting thorough due diligence, potential acquirers can be sure that they are getting a fair and reasonable deal when acquiring company XYZ.</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Financing Structures</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Due diligence with regard to acquisition of company XYZ is an important step in the process of acquiring a business. It involves thorough examination and analysis of the financial, legal, operational, and other aspects of the target company. This includes reviewing the financial statements, tax returns, contracts, customer agreements, corporate records, and any other information that is necessary to determine the current status and future prospects of the company. Due diligence also includes making sure that the target company has all the necessary permits and licenses in place to operate in the local and global market. Furthermore, due diligence requires assessing the current level of assets and liabilities and understanding the target company’s competitive landscape. All these steps are necessary for ensuring the success of the acquisition of company XYZ.</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Regulatory Requirements</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Due diligence is an important part of the acquisition process of company XYZ. It involves a thorough review of all aspects of the target company, including financials, operations, legal, tax and environmental considerations. This helps to identify potential issues or risks that need to be addressed prior to completing the acquisition. Additionally, due diligence provides buyers with valuable insight into the target company’s strengths and weaknesses, which can be used to negotiate better terms in the transaction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Regulatory Requirements</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Due diligence with regard to the acquisition of company XYZ is an essential step for any prospective buyer. It involves a thorough review of the target company’s financial, legal and operational records, as well as its intellectual property portfolio, to ensure that all key aspects of the business are in good order. This process helps identify any potential risks associated with the transaction, enabling the buyer to make an informed decision regarding the purchase.</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Regulatory Requirements</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Due Diligence in the acquisition of company XYZ involves a thorough and comprehensive review of the company's financials, operations, legal documents and other relevant information to ensure that all material facts are identified and understood. This exercise allows for efficient and informed decision-making about the proposed transaction, thereby minimizing potential risks associated with the transaction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Regulatory Requirements</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Due Diligence is an important step when acquiring a company, such as XYZ. It involves thoroughly researching and analyzing the target company’s financial, legal, operational, and other relevant information to ensure that it is an appropriate acquisition for the buyer. This due diligence process should include reviewing the company’s financial statements, customer contracts, employee records, insurance policies, intellectual property rights, and any other material documents or agreements. Additionally, the buyer should conduct background checks into the company's key employees and owners, as well as its competitors. Through this comprehensive review of all available data, the buyer can determine the true value of XYZ and whether it is a wise investment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Regulatory Requirements</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Due Diligence with regard to acquisition of company XYZ is the process of examining the financial, legal and operational records of a business to determine its value and suitability for purchase. This includes reviewing financial statements, contracts, tax returns and other documents to ensure that all obligations have been met, liabilities are accurately recorded, and assets are correctly valued. Additionally, it involves assessing the current and future prospects of the business to ensure it can sustain itself beyond the acquisition.</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Mergers and Acquisitions</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: What are the Financing Structures for acquiring Company XYZ?</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Mergers and Acquisitions</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: What financing structures exist for the acquisition of company XYZ?</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Mergers and Acquisitions</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: What are the financing structures for acquiring company XYZ?</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Mergers and Acquisitions</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: What are some of the common financing structures for acquiring company XYZ?</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Mergers and Acquisitions</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: What financing structures should I consider when acquiring company XYZ?</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Due Diligence</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+XYZ's acquisition was financed with a combination of equity and debt, creating a unique financing structure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Due Diligence</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+XYZ's acquisition was financed through a mix of debt and equity, providing the company with a flexible financing structure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Due Diligence</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+XYZ's acquisition is expected to be financed through a combination of equity and debt, with the exact structure to be determined in due course.</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Due Diligence</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+XYZ has adopted a complex financing structure to support its acquisition of the company.</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Due Diligence</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+XYZ's acquisition was funded through a combination of equity, debt and mezzanine financing structures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Financing Structures</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The Financing Structures for the acquisition of company XYZ will be determined by the approach taken by both parties in the deal. Generally speaking, the financing structure for a company acquisition includes debt, equity, and hybrid capital. Depending on the size of the transaction, debt can range from bank loans to private equity investments. Equity is generally provided by the buyer, such as venture capital firms or corporate investors. Hybrid capital consists of both debt and equity, and is often used to bridge the gap between buyers and sellers. The ultimate goal of the financing structure is to ensure that the buyer has enough money to complete the acquisition and that the seller receives adequate compensation for the sale. Ultimately, the best financing structure for an acquisition of company XYZ will depend on the particular circumstances of the transaction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Financing Structures</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The financing structure for the acquisition of XYZ is one that should be carefully considered. Generally, the most common structure used involves a combination of debt and equity capital from both the acquiring company and the target company. This can include cash, stock, and/or other securities, as well as loans or lines of credit from banks, private investors, venture capitalists, or other sources. In addition, other financial instruments such as convertible bonds, options, warrants, and put options may also be involved. The specifics of each financing structure will vary depending on the specific needs of each company, the relative bargaining power of the two parties involved, and the legal environment in which the transaction takes place. Ultimately, it is important to ensure that the financing structure used is appropriate for the transaction and provides sufficient capital to fund the acquisition.</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Financing Structures</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The Financing Structures for the acquisition of XYZ company involve a variety of sources, including private equity, debt financing, and public offerings. Private equity investors often provide the largest portion of financing, allowing the acquiring company to use their own capital to purchase the target company. Debt financing is also available in the form of senior and subordinated loans, lines of credit, and other forms of debt instruments. These are typically secured by assets of the target company, giving lenders additional protection against the risk of default. Public offerings may also be used to raise funds for an acquisition, however these tend to be more expensive due to higher disclosure requirements and greater administrative costs. Ultimately, the best financing structure for an acquisition will depend on the size and complexity of the transaction, as well as the financial objectives of all involved parties.</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Financing Structures</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The Financing Structures for the acquisition of company XYZ will depend on the size and nature of the business. Generally, a larger company will require more complex financing structures than a smaller one. In general, a combination of debt financing, equity financing, and asset-based financing can be used to finance an acquisition. Debt financing involves borrowing money from a bank or other external source and paying interest on the loan. Equity financing is when the buyer contributes a portion of the purchase price either in cash or in the form of stock. Asset-based financing is when the buyer uses assets owned by the target company as collateral for a loan. Additionally, certain tax incentives may be available for some acquisitions which can also factor into the financing structure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Financing Structures</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The Financing Structures for the acquisition of XYZ Company are an important consideration in determining the success of the deal. XYZ Company can be acquired through a variety of financing structures, including debt, equity, and hybrid financing. Debt financing involves borrowing from banks or other lenders and using the debt to purchase the company. Equity financing involves raising funds from private investors or venture capital firms. Hybrid financing combines both debt and equity financing to acquire the company. The most suitable financing structure will depend on the size and complexity of the transaction, as well as the risk appetite of the parties involved. Ultimately, the financing structure should be tailored to the specific needs of the transaction and the ability of the acquiring party to service the debt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Regulatory Requirements</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Financing structures are an important consideration when acquiring a company like XYZ. These structures can include debt, equity, or a combination of both, and should be tailored to the needs of the transaction and the goals of the buyer. Understanding the tax implications, legal requirements, and other considerations involved in each structure is essential in order to ensure that the acquisition goes as smoothly as possible.</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Regulatory Requirements</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Financing Structures with regard to acquisition of company XYZ may involve a combination of cash, debt and equity. Cash may be generated from the acquirer or provided by external sources such as banks or investors. Debt financing may come in the form of bonds, bank loans or other forms of debt. Equity financing is often done through the issuance of shares or other securities to existing shareholders or new investors. All of these financing structures can be used to fund the acquisition of company XYZ.</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Regulatory Requirements</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Financing structures for the acquisition of company XYZ can vary greatly depending on the buyer's capital resources and the size of the transaction. Common financing structures include cash payments, stock exchanges, and loan arrangements. Cash payments may be made in full or partially to cover the purchase price, while equity exchanges could involve the transfer of the buyer's shares to the seller. Loan arrangements may take the form of bank borrowing or private debt financing, with repayment terms determined by the buyer and seller.</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Regulatory Requirements</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Financing structures for the acquisition of company XYZ involve a combination of various sources, including debt and equity financing. Debt financing typically involves the use of loans or other secured debt instruments, while equity financing generally uses proceeds from stock sales or investments by venture capitalists. Both types of financing can provide flexible options to XYZ in order to finance the acquisition. In addition to traditional lending sources, XYZ may also consider alternative forms of financing such as venture capital and angel investors. Ultimately, the right combination of debt and equity will depend on the specifics of the deal and the financial goals of the acquirer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Regulatory Requirements</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The Financing Structures for the acquisition of XYZ Company involve the use of debt, equity and other sources of capital. Debt financing may include bank loans, bonds, or private equity investments. Equity financing may include venture capital, angel investors, public offerings, or convertible notes. Other sources of capital may include asset-based lending or government grants. All these financing structures should be considered carefully to ensure that the business is able to meet its financial obligations in a timely manner and to ensure that the acquisition is successful.</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Mergers and Acquisitions</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: What are the regulatory requirements for acquiring company XYZ?</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Mergers and Acquisitions</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: What are the regulatory requirements for acquiring XYZ Company?</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Mergers and Acquisitions</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+What are the regulatory requirements for acquiring company XYZ?</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Mergers and Acquisitions</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+What are the regulatory requirements for the acquisition of company XYZ?</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Mergers and Acquisitions</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"What are the regulatory requirements for acquiring Company XYZ?"</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Due Diligence</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+XYZ must meet all applicable regulatory requirements in order to complete the acquisition.</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Due Diligence</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+XYZ must comply with all applicable regulatory requirements when acquiring another company.</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Due Diligence</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+XYZ must meet all applicable regulatory requirements in order to complete the acquisition.</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Due Diligence</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+XYZ must comply with all applicable Regulatory Requirements when acquiring any companies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Due Diligence</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+XYZ must comply with all applicable regulatory requirements when acquiring another company.</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Financing Structures</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+When a company named XYZ is being acquired, a number of regulatory requirements must be met in order to complete the transaction. This includes meeting certain legal and financial requirements that are set by the relevant authorities. For example, the financial statements of both parties involved in the acquisition need to be audited and approved by a certified accountant or auditor. Additionally, the acquirer may need to obtain approval from the relevant financial regulator, such as the Securities and Exchange Commission (SEC). Furthermore, depending on the size of the acquisition, the acquirer may also need to file disclosure documents with the SEC or other applicable regulatory bodies. Finally, the acquirer may also be subject to anti-trust laws, which require the company to notify the relevant regulators if the acquisition will result in a significant reduction of competition.</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Financing Structures</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The Regulatory Requirements for the acquisition of company XYZ must be met in order to ensure that all legal and regulatory obligations are fulfilled. This includes ensuring that any financial requirements are met, such as filing appropriate paperwork with relevant government agencies and obtaining the necessary approvals from the relevant regulatory bodies. Additionally, the target company’s shareholders must also approve the acquisition and any contractual agreements between the two companies must be reviewed and approved by the applicable regulatory authorities. Finally, all laws, rules, and regulations related to the acquisition process, including anti-trust laws, must be observed throughout the transaction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Financing Structures</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The Regulatory Requirements with regard to the acquisition of company XYZ involve a thorough review of applicable laws and regulations. The regulatory landscape is constantly changing, and it is important to ensure that all requirements are met before proceeding. This includes obtaining the necessary approvals from relevant government bodies, as well as ensuring that any financial or contractual terms are in line with industry norms. Additionally, the target company must also be compliant with anti-trust regulations, and any changes to ownership must be reported to the relevant authorities. It is essential to consider the potential risks associated with the acquisition of XYZ, as well as the benefits associated with the transaction. Ultimately, it is vital to ensure that all required steps are taken and that all regulatory requirements are fully met before committing to the acquisition.</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Financing Structures</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The acquisition of company XYZ requires meeting certain regulatory requirements. Depending on the size of the company and the industry it operates in, there may be different requirements that need to be met. For example, if XYZ is a publicly traded company, then the acquirer must file documents with the Securities and Exchange Commission (SEC) before the acquisition can take place. Other regulatory requirements related to the acquisition of XYZ may include obtaining approval from any relevant government regulators or other entities, such as the competition commission. The acquirer should also ensure that they are compliant with all applicable laws and regulations, including those governing labor and employment, taxes, antitrust, and environmental protection. Additionally, the acquirer must provide disclosure materials to shareholders and obtain their approval of the transaction. Meeting these regulatory requirements is an essential step in the acquisition of company XYZ.</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Financing Structures</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The Regulatory Requirements with regard to the acquisition of company XYZ must be taken into account by any interested party. Depending on the jurisdiction, laws and regulations may vary, but there are some commonalities across most jurisdictions. The first step is to review the applicable laws and regulations governing the acquisition process in order to ensure that all relevant requirements are being met. This includes looking at the corporate structure, filing documents with the appropriate regulatory bodies, obtaining necessary approvals from shareholders, and ensuring that all financial disclosures are up to date. Additionally, an assessment of the potential liabilities associated with the acquisition must be undertaken, including any potential anti-trust issues or conflicts of interest. Finally, it is important that the parties involved in the transaction have adequate legal representation to protect their interests and ensure that all aspects of the deal are conducted in accordance with the applicable laws and regulations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Regulatory Requirements</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Regulatory requirements for the acquisition of company XYZ may differ depending on the jurisdiction in which it is located. Generally, these rules and regulations may include obtaining approval from government bodies, such as a competition authority or other relevant regulatory body, depending on the size and nature of the transaction. Additionally, there may be rules regarding disclosure of information to shareholders or other stakeholders, or filing documents with regulatory authorities. Companies should also consider any applicable labor laws, tax implications, and foreign investment restrictions that could affect the transaction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Regulatory Requirements</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The Regulatory Requirements with regard to the acquisition of company XYZ must be closely adhered to in order to ensure compliance with applicable laws, regulations and industry standards. Depending on the type of acquisition, different legal documents may need to be submitted, such as a merger agreement, asset purchase agreement, or share purchase agreement. The company's officers must also provide necessary financial disclosure documents, including audited financial statements and pro forma statements. Additionally, anti-trust filings may be required depending on the size of the transaction and other factors. Finally, regulatory authorities may need to approve the transaction before it can be finalized.</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Regulatory Requirements</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The Regulatory Requirements for the acquisition of company XYZ are determined by the applicable laws and regulations in the jurisdiction where the company is domiciled. These requirements may include obtaining necessary approvals from regulatory authorities, due diligence on the target company, and ensuring compliance with all relevant laws and regulations. The buyer should also consider any contractual or legal obligations that the target company may have to comply with in order for the acquisition to be successful. In addition, the buyer should seek professional advice on taxation, competition, and other legal issues that may arise during the acquisition process.</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Regulatory Requirements</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The Regulatory Requirements for the acquisition of company XYZ will vary depending on the jurisdiction in which the company is located. Generally, the acquirer must comply with all applicable laws and regulations in their jurisdiction, including any requirements related to registration or filing of documents with a regulatory authority. Additionally, the acquirer may need to provide certain disclosures or obtain certain regulatory approvals prior to completing the transaction. It is important that the parties involved in the acquisition are aware of the relevant legal framework and have taken steps to ensure compliance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Regulatory Requirements</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The regulatory requirements for the acquisition of XYZ Company will vary depending on the jurisdiction in which the transaction is taking place. Generally, however, they will include filing requirements with the relevant securities regulator, disclosure of material information to shareholders, and obtaining approvals from government and competition authorities. Additionally, there may be restrictions on the amount of debt that can be used to finance the transaction and/or requirements for certain investors to make a public offer for the shares of the target company.</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Mergers and Acquisitions</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"What are the closing procedures for the acquisition of Company XYZ?"</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Mergers and Acquisitions</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Query: What closing procedures should I follow for the acquisition of XYZ Company?</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Mergers and Acquisitions</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ChatGPT: What are the closing procedures for the acquisition of company XYZ?</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Mergers and Acquisitions</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Query: What are the Closing Procedures for the acquisition of company XYZ?</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Mergers and Acquisitions</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"What are the closing procedures for acquiring company XYZ?"</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Due Diligence</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+We hereby confirm that all Closing Procedures related to the acquisition of company XYZ have been completed in accordance with the terms of the Agreement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Due Diligence</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The Closing Procedures for the acquisition of XYZ have been completed, and the company is now officially part of our organization.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Due Diligence</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The Closing Procedures for the acquisition of company XYZ have been completed and all necessary documents have been signed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Due Diligence</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Upon completion of the acquisition of XYZ, all Closing Procedures must be completed in accordance with the terms of the Acquisition Agreement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Due Diligence</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The Closing Procedures for the acquisition of company XYZ have been completed successfully.</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Financing Structures</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The closing procedures for the acquisition of company XYZ should include an in-depth review of all documents and agreements related to the transaction. All parties involved should be notified of the final closing date, and all necessary paperwork should be completed prior to the meeting. Additionally, a thorough due diligence process should be conducted to verify information provided by both parties and ensure that all terms of the agreement have been met. The purchase price should be paid in full and all funds received should be verified by all parties. At the close of the transaction, the new owner should receive all assets, including any intellectual property, as well as any liabilities associated with the company. Finally, the company should be formally transferred to the new owner and all appropriate legal documents should be signed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Financing Structures</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The closing procedure for the acquisition of company XYZ is an important step in ensuring a successful transition and integration process. The closing procedure involves a final review of all documents, financial records and contracts; ensuring that all legal and financial obligations are met. Additionally, the parties involved will need to coordinate the transfer of ownership and management responsibilities, as well as arrange for any necessary financing. Furthermore, the parties must ensure that the transaction complies with all applicable laws and regulations. Finally, the parties will need to provide appropriate notifications to shareholders and other stakeholders regarding the completion of the acquisition. Once all the required procedures have been completed, XYZ will officially become part of the acquiring company.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Financing Structures</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The closing procedures for the acquisition of company XYZ involve all parties in the transaction to sign the necessary agreements and documents, as well as transferring funds to complete the purchase. This includes both the buyer and seller signing an asset purchase agreement that outlines the terms of the sale, including who will assume any liabilities or debts associated with the company. The seller must also provide a set of financial records and other documents related to the company such as tax returns, employee records, and customer lists. After all documents have been signed, the buyer will then transfer the agreed-upon purchase price to the seller. Once the payment is received, the new ownership rights are officially transferred and the acquisition process is completed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Financing Structures</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The Closing Procedures for the acquisition of XYZ Company require a few steps. First, both parties will need to review and sign the Closing Documents, which includes the Purchase Agreement, Certificate of Incorporation, and Bill of Sale. Second, both parties must agree on a closing date and arrange for all necessary funds to be transferred to complete the transaction. Third, all outstanding debts and liabilities must be settled with creditors and other third parties involved in the deal. Fourth, the appropriate filings need to be made with the local, state and federal regulatory agencies. Finally, the new ownership of XYZ company needs to be announced to the public. All these steps should be completed in order to ensure a successful and legal acquisition of XYZ Company.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Financing Structures</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The closing procedures for the acquisition of company XYZ involve several steps to ensure that all stakeholders involved in the transaction are protected. The first step is to review and execute the purchase agreement, which outlines the terms of the sale between the buyer and seller. The next step is to prepare and review any financing documents, such as loans or promissory notes, that may be necessary for the completion of the transaction. After these documents are completed and reviewed, the buyer and seller must sign a Closing Statement that acknowledges the finalization of the sale. Once all of the agreements and documents have been finalized, the buyer must complete the transfer of funds and receive the stock certificates from the seller. Finally, any documents related to the transaction must be filed with the appropriate government bodies. Upon completion of these steps, the acquisition of company XYZ will be officially closed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Regulatory Requirements</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The Closing Procedures with regard to acquisition of company XYZ involve the completion of all contractual obligations by both parties and obtaining all necessary approvals from regulatory authorities. This may include transfer of assets and liabilities, transfer of ownership, payment of fees, and other related matters. All documents must be signed and executed in accordance with the terms and conditions of the agreement. Once the closing is complete, the new entity will be officially established and the acquired company will become a part of the acquiring organization.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Regulatory Requirements</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The Closing Procedures for the acquisition of XYZ involve a number of steps to ensure that the transaction is properly executed and that the interests of both parties are protected. These steps include legal review, due diligence, signing of contracts and exchange of consideration, transfer of assets and liabilities, preparation of closing documents and filing with the relevant authorities. The Closing Procedures are important in ensuring a smooth transition and proper integration of the newly acquired business into the acquiring company.</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Regulatory Requirements</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Closing Procedures for the acquisition of XYZ Company include finalizing legal documents, obtaining regulatory approvals, transferring ownership of assets, obtaining funding from lenders, and formalizing the transfer of ownership to the new owners. Additionally, the closing process may involve adjusting accounting records and resolving any outstanding issues related to the transaction. The closing of the acquisition is typically completed when all parties have signed the necessary paperwork, regulatory approvals are obtained, and all funds have been transferred. Once the closing is complete, the newly acquired company will officially become part of the acquiring organization.</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Regulatory Requirements</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The Closing Procedures for the acquisition of company XYZ involve ensuring all the necessary documents are in order, verifying that all conditions of the agreement have been met, and completing the financial transactions associated with the deal. This includes arranging the transfer of funds, executing all necessary tax forms, and filing any necessary legal filings with the appropriate government agencies. Additionally, all parties must be properly informed of the closing and sign off on the final documents.</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>acquisition of company named XYZ</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Regulatory Requirements</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The Closing Procedures for the acquisition of company XYZ involve the completion of all legal and administrative tasks necessary to finalize the transaction. This includes reviewing and signing off on any outstanding documents, transferring assets and liabilities, and ensuring that all regulatory and financial requirements are met. The closing process should also ensure that all shareholders have been given the necessary information and had the opportunity to provide their input. Once the closing is complete, the new entity created by the acquisition should be able to begin operations in a timely manner.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Benefits</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Question: What are some benefits of having employee information? 
+Answer: Employee information can be used to improve recruitment, onboarding, and tracking performance. Having employee information can also help with payroll and tax compliance, benefit administration, and regulatory compliance. Additionally, employee information can be used to measure employee engagement and productivity, as well as provide insights into workforce trends and hiring needs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Benefits</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: What are the benefits of having up-to-date employee information?</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Benefits</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Query: What are the benefits of having accurate employee information?</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Benefits</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: What are the benefits of having up-to-date employee information?</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Benefits</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+What are the benefits of having employee information?</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Benefits</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee information provides an efficient way to ensure employees have access to relevant and up-to-date information, enabling them to make informed decisions, remain productive and contribute to the overall success of the organization.</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Benefits</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Having accurate employee information on hand allows the company to quickly and easily access important data, such as payroll and benefits information, which can improve overall efficiency.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Benefits</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+An organization's commitment to collecting and providing employees with accurate and up-to-date information can pay off in increased job satisfaction, better communication, and a more positive work environment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Benefits</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Having accurate and up-to-date employee information ensures that everyone is on the same page when it comes to benefits, payroll, and other important matters.</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Benefits</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee information systems provide organizations with the ability to quickly and easily access critical data about their personnel, allowing them to make more informed decisions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Benefits</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee information is a valuable asset for any company. Having detailed and organized employee information can help to improve efficiency, reduce costs, and improve morale. Employee information helps managers and supervisors make informed decisions about staffing and scheduling, assists with performance reviews, and can be used to track labor costs. Additionally, having access to updated employee information gives employers an accurate picture of their workforce and can help them identify areas in which they need to improve. Finally, having access to employee information makes it easier for companies to comply with applicable laws and regulations as well as to provide employees with the benefits, pay, and other support that they are entitled to receive.</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Benefits</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee information can be a valuable tool for businesses. It helps to create stronger relationships between employers and employees, as it provides an avenue for communication. It also enables managers to understand their team better and provide tailored support. Additionally, employee information can help organizations track performance and identify areas of improvement. This allows employers to make informed decisions on how best to allocate resources and manage their team. Employee information is also essential for compliance with labor laws, ensuring that employees are treated fairly and their rights are protected. Finally, employee information can be used for recruitment and selection, helping businesses find the right candidate for the job and increasing their chances of success.</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Benefits</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee information is an essential part of any successful business. By having a centralized system to store and manage employee information, businesses can make sure that the right people have access to the information they need when they need it. This can help increase efficiency, reduce costs, and provide better customer service. Additionally, employee information can be used to track progress, assess performance, and monitor changes in the workplace. This allows employers to make informed decisions about their workforce and ensure that they are making the most of their resources. Furthermore, having accurate and up-to-date employee information helps ensure compliance with labor laws and regulations, helping to protect employees' rights and interests.</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Benefits</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee information is a key component of successful employee management. Having accurate and up-to-date employee information allows employers to make informed decisions about hiring, training, promotion, and compensation. Additionally, keeping track of employee information helps employers ensure that employees are meeting their job expectations and staying engaged with the organization. Employee information also reduces the risk of legal implications, as it provides a documented record of employees’ rights and responsibilities. Finally, having an organized system for tracking employee information saves time and resources which can be put towards other areas of the business.</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Benefits</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee information is an invaluable asset for organizations, as it helps to support business operations and decision-making. Employee information allows businesses to track the progress of their workforce, measure performance, and make strategic decisions about staffing and resources. Additionally, employee data can be used to identify areas of strengths and weaknesses among employees, as well as to recognize individual achievements. It can also help managers to improve communication with staff, ensure compliance with labor laws, and develop better benefits packages. Finally, employee information is essential for business continuity and succession planning, allowing organizations to ensure that the right people are in the right roles at the right time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Benefits</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee information systems can provide numerous benefits for employers and employees alike. For employers, these systems can help to improve the accuracy and security of employee records, reduce paperwork, streamline administrative processes, and improve communication between staff and management. For employees, these systems can allow easier access to personal information, enable easier communication with managers, and facilitate better compensation and benefits packages.</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Benefits</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee information management provides an array of benefits to employers, including increased efficiency and cost savings, improved accuracy and compliance, improved communication between employees and managers, and better decision-making based on more accurate and timely information. Additionally, it can help create a more positive workplace culture by providing employees with the tools they need to manage their own data and to have a greater understanding of their roles and responsibilities within the organization.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Benefits</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee information systems provide organizations with a powerful tool to manage and track employee data. These systems offer numerous benefits, including improved accuracy and efficiency in managing personnel records, enhanced communication among departments and employees, better organization of data, increased visibility into employee performance and compliance, and streamlined processes for payroll and other HR tasks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Benefits</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee Information systems provide numerous benefits to both employers and employees. Benefits for employers include enhanced decision making, improved productivity, cost savings, and better communication with staff. Benefits for employees include faster access to payroll and benefit information, easier tracking of performance and career development, and improved employee engagement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Benefits</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee information systems can provide a range of benefits to both the employee and the employer. For employees, these systems can help them manage their personal data, stay organized, save time and money, and even access career development tools. For employers, they can reduce administrative costs, improve accuracy and productivity, increase safety and security, and support better decision making.</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: What type of training do you offer for employees regarding employee information?</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Example Query: What kind of training is available to employees regarding information management?</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+What training is available to employees regarding employee information?</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Hello ChatGPT,
+What training is available for employees regarding employee information?</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: What kind of training is available for employees regarding employee information?</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee training is an important part of providing employees with the necessary skills and knowledge to effectively carry out their job roles.</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+We are offering a comprehensive training program to ensure that all employees are up-to-date on the latest information regarding employee policies and procedures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The company provides regular training to ensure employees are up-to-date on the latest employee information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+We provide regular training sessions to ensure our employees are up to date with the latest information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The company provides comprehensive training to ensure that all employees are up-to-date on the latest employee information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee information training is an important part of any organization's success. It helps to ensure that employees are aware of the company policies and procedures, their rights and responsibilities, and the expectations from them. This training also provides a platform for employees to learn about new technologies, skills, and processes that can help them improve their job performance. In addition, employee information training helps to keep employees up to date on changes in the industry, workplace regulations, and organizational goals. By providing this type of training, organizations create an environment of open communication and collaboration which leads to increased productivity and morale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee Training is a critical component of any successful business. It helps ensure that employees are up-to-date with the most current information and techniques in their profession, as well as providing them with the knowledge and skills necessary to perform their job duties effectively. Employee training can also help to increase employee productivity and morale by teaching them new methods and techniques they can use to improve their performance. From product knowledge to customer service, there are many aspects of employee training that can help your company succeed. Providing regular training and development opportunities for your employees will help them feel valued and competent, resulting in increased job satisfaction, loyalty, and motivation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee training is an important part of any organization's success. It helps ensure that employees have the skills and knowledge necessary to perform their jobs effectively and efficiently. Training can also help employees stay up-to-date on the latest industry trends, technology, and best practices. This can lead to increased productivity, lower employee turnover rates, and higher customer satisfaction levels. Additionally, training can help employees feel more connected to the company and its values, leading to a more engaged and satisfied workforce. For these reasons, it is essential for organizations to provide ongoing training opportunities for their employees.</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee training is an important part of any business. It not only helps to keep employees up to date on the latest technology and processes, but it also helps them understand their role in the organization and what is expected of them. Training can be delivered in a variety of ways, including classroom or online courses, seminars, job shadowing, apprenticeships, and more. By providing employees with the necessary information and skills they need to do their jobs well, businesses can increase employee satisfaction and productivity, while also demonstrating their commitment to the growth and development of their employees.</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee training is an essential part of any successful business. It is important to provide employees with the information and skills they need in order to perform their jobs effectively, safely, and efficiently. Training can help employees understand company policies, use new technologies, develop new skills, and increase productivity. By investing in employee training, businesses are ensuring that their employees are equipped to make informed decisions and contribute to the success of the company. Additionally, training can help improve employee morale and loyalty, which can lead to greater job satisfaction and overall better performance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Training with regard to Employee Information is an important part of any business, helping to ensure the accuracy and consistency of employee information. It can include topics such as data collection, data entry, and reporting, as well as security measures for protecting sensitive employee data. Training can also cover best practices for managing employee records, including retention policies and procedures for addressing changes in employee status.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Training with regard to Employee Information is essential for any organization. It helps employees stay up-to-date on policies, procedures, and other important information that will help them succeed in their role. Training can also help promote team building, increase efficiency, foster collaboration, and build trust among colleagues.</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Training with regard to Employee Information is essential for any successful business. It helps employees understand the company's policies and procedures, as well as how to properly use technology and other tools available to them. Training also provides employees with the knowledge and skills they need to perform their jobs effectively and efficiently. This type of training helps to ensure that employees are up-to-date on current changes in the workplace and can help improve overall productivity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee training is a crucial part of any organization's success. It helps employees to stay up to date with the latest technologies, practices, and procedures, while also providing an opportunity to increase their knowledge and professional development. Training can also provide valuable insights into employee information such as job satisfaction, career goals, and skill gaps.</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee training is an important part of any organization's success. It helps employees develop the skills and knowledge needed to achieve their goals, increase productivity, and improve overall job satisfaction. Training can also help an employer reduce turnover, improve safety, and develop a more engaged workforce.</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Query: What can I do to improve employee performance related to employee information?</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: How well is the company managing employee information?</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: What is the performance of employee information management?</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ChatGPT: What can you tell me about an organization's performance with regard to employee information?</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+What can you tell me about the performance of employee information management systems?</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The Performance Management System provides a comprehensive overview of employee performance information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The company has seen a significant improvement in the accuracy and timeliness of employee information since implementing the new performance management system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The performance of our employees regarding employee information has been outstanding.</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The Performance Management System provides employees with timely and accurate feedback on their performance, enabling them to make informed decisions about their career development.</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The Performance Management System provides employees with valuable information on their career progress and goals.</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee information is a critical component of any organization's performance. It helps to ensure that employees are properly managed and their roles are clearly defined. It also helps to track employee progress, identify areas for improvement, reward good performance, and recognize achievements. Employee information can be used to measure employee engagement and satisfaction, as well as to monitor organizational goals and objectives. It is important for organizations to have up-to-date and accurate employee information in order to get the best out of their staff and maintain a competitive advantage in the market.</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee information is critical to the overall performance of any business. Knowing who your employees are, their skills, background and experience is key to understanding how they can best contribute to the success of the company. This information should be kept up to date in order to ensure that each employee is being given the resources they need to perform at their highest potential. Additionally, it’s important to track employee progress over time so that trends can be identified and strategies implemented accordingly. Having a comprehensive view of the employee information is essential to creating an environment where employees can grow and succeed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee information is an important aspect of performance management. It allows managers to track employee data, such as skills and qualifications, education, experiences, and other relevant information that can be used for evaluating employees' job performance. Having accurate and up-to-date employee information helps managers make informed decisions about training, development, and promotions. Employee information also provides a basis for assessing the effectiveness of a particular performance management system. By having access to employee information, managers can better understand what works and what doesn't with regard to their current performance management process. This knowledge can then be used to make necessary changes or improvements in order to maximize performance and employee satisfaction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee information is a vital aspect of any successful organization. All organizations must keep accurate and up-to-date records on all their employees, including personal information, job history, qualifications and skills. Having comprehensive employee information also makes it easier to track performance and evaluate the effectiveness of employees. Once this information has been collected, employers can use it to measure productivity, set goals, reward good performance, and provide feedback. This helps to create an environment where employees feel valued and motivated to do their best work. Ultimately, having comprehensive employee information improves overall organizational performance and leads to better outcomes for everyone.</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee information is an important factor in the performance of a business. It allows for managers and supervisors to have a better understanding of their employees and their capabilities, as well as providing insight into how to best motivate and reward them. Knowing employee information such as skill sets, job experience and qualifications can allow management to assign tasks most appropriate for their staff, as well as create more meaningful incentives and recognition programs. Having this information also helps managers to identify areas where employees may need additional training or development. By having access to up-to-date and accurate employee information, organizations can ensure that their staff are performing at their maximum potential, thereby leading to improved organizational performance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Performance is an important factor in managing employee information. It helps employers assess the work of their employees and identify areas where they can improve. Performance metrics such as time management, quality of work, communication skills and attendance provide valuable insights into the performance of each employee. When managed effectively, performance can help create a productive and motivated workplace.</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee performance is an important factor in the success of any organization. It is important to measure and track employee performance in order to ensure that employees are performing at their best and to identify areas where improvement is needed. Employee information such as job performance, attendance records, skill level, attitude, and feedback from customers can all contribute to a better understanding of how employees are performing. This information can then be used to set goals, provide training and resources, and reward employees for their efforts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Performance with regard to Employee Information is an important factor when it comes to the success of any business. It is important for employers to track employee performance, so that they can motivate their employees and ensure that they are meeting their goals. Performance information can also be used to identify weaknesses and areas for improvement, as well as to measure progress made over time. By having accurate performance data, employers can create a better working environment for their employees and improve overall productivity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Performance with regard to Employee Information is all about utilizing the employee's data and metrics to measure their performance. It involves tracking key performance indicators such as attendance, productivity, job satisfaction, and other metrics to determine employee success. A well-managed performance system can help employers identify opportunities for improvement and provide employees with feedback on their performance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Performance with regard to Employee Information is a critical component of any organization. It involves understanding and tracking employee performance, providing feedback on their progress, and rewarding successes. Properly managing employee information can help organizations identify areas for improvement, provide better training opportunities and ultimately improve the overall performance of the entire company.</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Compensation</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Query: What is the compensation for employees in terms of salary, bonuses, and benefits?</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Compensation</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Query: What is the average compensation for employees in my company?</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Compensation</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Query: What is the typical compensation package for employees?</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Compensation</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Hello ChatGPT, can you tell me more about compensation with regard to employee information?</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Compensation</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Query: What is the compensation policy for employee information?</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Compensation</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employees are entitled to receive fair compensation for the work they perform according to their job description and the company's policies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Compensation</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employees are compensated according to the information provided in their employee profiles.</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Compensation</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employees are rewarded for their efforts by receiving competitive compensation packages that include base salary, bonus opportunities, and comprehensive benefits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Compensation</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employees are compensated based on their level of experience and performance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Compensation</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employees should be informed of any changes to their compensation packages in a timely manner.</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Compensation</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The Compensation with regard to Employee Information covers a wide range of topics from wages, salaries and bonuses to overtime pay, vacation time, paid holidays, and other forms of compensation. It is important for employers to understand the various components of employee compensation and the laws that govern it. Employers must comply with all federal and state regulations regarding minimum wage, overtime payments, and other areas of employee compensation. Additionally, employers need to be aware of the different types of benefits available to employees, including sick leave, health insurance, 401(k) plans, and other retirement benefits. Understanding employee compensation can help employers ensure that they are providing fair and equitable wages and benefits to their employees.</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Compensation</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Compensation for employees is a key factor in creating a successful and productive workforce. It not only helps attract and retain talent, but it also motivates employees to perform at their best. Employers must consider many different types of compensation when determining what is best for their organization and its employees. This can include salary, bonuses, vacation time, benefits, and more. Additionally, employers are required to provide accurate and timely information to employees regarding their compensation and any changes to it. By providing employees with this information, they can make informed decisions about their employment and better understand the value they are receiving from their employer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Compensation</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee compensation is an important element of any successful business. It can affect employee morale, motivation and productivity, as well as the overall profitability of the organization. Employers must ensure that they are providing fair and equitable compensation to their employees in order to retain a motivated and engaged workforce. This includes both financial rewards, such as wages and bonuses, as well as non-financial rewards, such as recognition, job satisfaction, and career development opportunities. Employee information should be collected and analyzed regularly to ensure that the company is paying fair and competitive wages, offering appropriate benefits, and taking into account other factors like experience, education, and performance. Additionally, employers should strive to create a culture of transparency and fairness in which employees feel their compensation is based on performance and not favoritism or discrimination.</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Compensation</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee compensation is a critical component of any successful business. It is important to ensure that employees are adequately compensated for their work in order to incentivize desired behaviors and maintain loyalty. Employee compensation should be tailored to the individual, taking into account experience, skill level, and job duties. Employers must also consider both financial and non-financial incentives, such as recognition and reward programs, which have been proven to improve employee satisfaction and performance. Additionally, employers should remain informed about market trends and labor laws to ensure fairness and equity when it comes to employee compensation. Ultimately, employee compensation is an important factor in the success of any organization.</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Compensation</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee compensation is an important factor in any successful organization. It is the process of providing monetary value to employees in exchange for their service and dedication to the company. Compensation can include a variety of benefits such as salary, bonuses, health insurance, vacation time, and more. It is vital that employers establish a fair and equitable system of compensation that rewards employees for their efforts and recognizes their contributions to the success of the organization. Employees should be made aware of the specific details of their compensation package, including how their salary or wages are determined, as well as any bonuses or other forms of compensation. This helps ensure that all employees are treated fairly and equitably when it comes to compensation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Compensation</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Compensation is an important part of employee information as it provides employees with a sense of value and satisfaction. It is a reflection of the effort and loyalty that employees put in to their work, and it helps create a stable and productive workforce. Compensation includes wages, salaries, bonuses, health benefits, vacation time, overtime pay, pension plans and other forms of financial rewards.</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Compensation</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Compensation is an important factor in any employee's experience with an organization. It includes wages, benefits, bonuses and other forms of remuneration, such as stock options. It plays a major role in attracting and retaining quality staff and can have a direct impact on employee morale and motivation. A fair and competitive compensation package is essential to ensure the success of any organization.</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Compensation</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Compensation is the process of providing financial rewards to employees for their services and contribution to the business. It includes both base salary and non-salary benefits, and may involve a range of programs such as bonuses, incentives, vacation time, and other forms of recognition. Employee information is essential in creating effective compensation strategies that will motivate and retain top talent.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Compensation</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Compensation is an important part of employee information, as it provides both employees and employers with a way to measure job performance and reward success. It includes wages, salaries, bonuses, commissions, and other forms of financial rewards and benefits. Compensation helps to motivate and retain employees by providing them with a sense of security and satisfaction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Compensation</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Compensation is a key component of employee information. It involves setting salaries and wages, as well as providing benefits to employees. It is important for employers to make sure that compensation is fair and equitable for all employees so that everyone is treated fairly and has an equal opportunity for success.</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Recruitment</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: What information is collected during the recruitment process of an employee?</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Recruitment</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: What information do employers need to know when recruiting new employees?</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Recruitment</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: What information do employers need when recruiting new employees?</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Recruitment</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: What information do I need for recruitment regarding employee information?</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Recruitment</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Query: What information do employers need to know about potential employees during the recruitment process?</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Recruitment</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The Recruitment process should include a thorough review of the prospective employee's background and qualifications to ensure they are a good fit for the company.</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Recruitment</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The Recruitment team is responsible for collecting and analyzing employee information to find the best candidate for the job.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Recruitment</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The Recruitment process is a critical component of managing employee information and ensuring the right candidates are selected for the right roles.</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Recruitment</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Recruiting the right employees is essential to ensure that the organization has access to the best talent and the necessary employee information to make informed hiring decisions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Recruitment</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Recruitment is an important part of the process for obtaining and storing accurate information about potential employees.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Recruitment</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The recruitment of employees is an important process for any company. It involves sourcing, screening and selecting the right talent to join the organisation. Recruitment requires a thorough knowledge of the skills and qualifications needed for the job as well as understanding of the company’s culture and values. During the recruitment process, employers should take into account employee information such as experience, education, skills and values when making hiring decisions. This helps ensure that they select the best-suited candidate for the role. Additionally, it is important to keep employee information updated in order to accurately assess the suitability of candidates for future roles.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Recruitment</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Recruitment is the process of sourcing and selecting qualified applicants to fill vacancies within an organization. It involves identifying potential candidates, screening and interviewing them, and making a selection based on their qualifications, experience, and other criteria. The recruitment process can be time-consuming and costly, but it is essential to finding the right employee to meet an organization’s needs. By collecting information from job candidates during the recruitment process, organizations can make informed decisions about the best individual for the job. This includes collecting basic personal information, such as contact information, education and work history, as well as asking questions about the candidate’s skills, experience, and interests. Having this information available makes the recruitment process more efficient and ensures that the right employee is hired for the job.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Recruitment</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Recruitment is an important process for any organization as it involves identifying and hiring the best possible candidates for the job. It is a complex process that requires research, planning, and monitoring to ensure the right people are hired for the job. Employee information is key to successful recruitment, as it helps employers assess potential candidates, make decisions regarding roles and positions, and understand the capabilities of each individual. Through employee information, employers can gain insight into a candidate's skills, experiences, qualifications, career objectives, and other qualities that make them an ideal fit for the role. Additionally, employee information can help employers determine if the individual is a good cultural fit for their organization.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Recruitment</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The recruitment process for employee information involves collecting essential data about potential employees and assessing their qualifications for the position. This includes gathering information such as resumes, references, and other records that provide evidence of the candidate’s experience and skills. The recruitment process may also include interviews and assessments to further evaluate a candidate’s suitability. The goal of the recruitment process is to find the best candidate for the job while taking into account the company’s specific needs and goals. Recruitment ensures that the right people with the right skills are hired, thus ensuring a successful and productive workforce.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Recruitment</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Recruitment is the process of finding and hiring suitable candidates for a job opening. An effective recruitment process should focus on finding the best talent possible, while considering various factors such as skills, experience, and cultural fit. Employee information forms are often used to help with the recruitment process, as they provide valuable insight into a potential candidate’s background, qualifications, and competencies. This information helps employers make informed decisions when selecting an employee, and can also be used to assess their performance once they have been hired. Additionally, employee information forms can be used to build a comprehensive database of employee information that can be used in future recruitment efforts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Recruitment</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Recruitment is the process of finding and hiring qualified candidates for a job. It involves identifying, sourcing, screening, interviewing and onboarding employees who have the right skills and fit the company culture. Employee information is key in this process, as it helps employers make informed decisions about which candidates to bring on board.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Recruitment</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Recruitment is an important process for any organization, as it involves identifying, assessing and engaging employees to ensure the best talent is brought in to help meet business goals. Through the recruitment process, organizations can gain valuable insight into potential employees' skills, experience and qualifications, helping them to make informed decisions about their hiring needs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Recruitment</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Recruitment is the process of identifying, screening and hiring employees for an organization. It involves developing effective job descriptions, creating a pool of potential employees, interviewing candidates and selecting the best fit for the role. Recruitment ensures that employee information is accurate, current and up-to-date to ensure that the right people are hired for the right roles.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Recruitment</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Recruitment is the process of sourcing, screening and hiring the right candidate for an open position within a company or organization. It is an important part of the employee information process as it helps to ensure that the correct candidate is selected to fill a role, who has the necessary skills and experience to be successful in the job.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Employee Information</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Recruitment</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Recruitment is the process of finding, screening, and selecting qualified individuals to fill job openings. It is a vital part of an organization's success as it helps ensure that the right people are in the right positions. Recruitment involves gathering employee information such as resumes, qualifications, experience, and skills that can help make the right hiring decision.</t>
         </is>
       </c>
     </row>

--- a/algo/data.xlsx
+++ b/algo/data.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D315"/>
+  <dimension ref="A1:D505"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
       <selection activeCell="D211" sqref="D211"/>
@@ -7750,6 +7750,4382 @@
         </is>
       </c>
     </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Non-Disclosure Agreements</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: What is a Non-Disclosure Agreement with regard to Trade Secrets?</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Non-Disclosure Agreements</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: What is a Non-Disclosure Agreement (NDA) when it comes to Trade Secrets?</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Non-Disclosure Agreements</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: What are the provisions of a Non-Disclosure Agreement with regard to Trade Secrets?</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Non-Disclosure Agreements</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: What should be included in a Non-Disclosure Agreement relating to Trade Secrets?</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Non-Disclosure Agreements</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: What is a Non-Disclosure Agreement with regard to Trade Secrets?</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Non-Disclosure Agreements</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The Non-Disclosure Agreement is the legal document that binds both parties to keep any Trade Secrets confidential.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Non-Disclosure Agreements</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Parties should use Non-Disclosure Agreements to protect the confidential information and trade secrets of their businesses.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Non-Disclosure Agreements</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Non-Disclosure Agreements are essential to protecting Trade Secrets and ensuring that confidential business information is kept secure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Non-Disclosure Agreements</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Non-Disclosure Agreements are a crucial part of protecting trade secrets, ensuring that confidential information remains confidential.</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Non-Disclosure Agreements</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Non-Disclosure Agreements are essential to protecting Trade Secrets from unauthorized disclosure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Non-Disclosure Agreements</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Non-Disclosure Agreements (NDAs) are a type of contract used to protect confidential information or trade secrets. They are an important tool for companies wishing to protect their intellectual property. An NDA is typically signed between two parties, such as employers and employees, partners, or independent contractors. The agreement stipulates that certain information, including proprietary information, inventions, systems, processes, formulas, customer lists, and other information deemed valuable by the disclosing party, must remain confidential. NDAs can also be used to protect sensitive information shared between customers and suppliers. By signing an NDA, both parties agree to keep the shared information secret and not use it for anything other than what was agreed upon. This ensures that neither party will unlawfully benefit from the disclosed information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Non-Disclosure Agreements</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Non-Disclosure Agreements (NDAs) are used to protect trade secrets. NDAs are legally binding contracts between two parties that restrict the sharing of confidential information. This agreement prevents one party from disclosing the other party's trade secrets to a third party without prior written consent. NDAs can be used with employees, contractors, and business partners to ensure that confidential information stays out of the public domain. They create an obligation of confidentiality that requires all parties to keep any shared information confidential and not use it in any way that could harm the other party. NDAs also provide legal remedies for the party whose trade secrets have been violated.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Non-Disclosure Agreements</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+A Non-Disclosure Agreement (NDA) is a legally binding contract between two parties that outlines confidential material, knowledge or information shared by one party with another. This agreement is often used to protect trade secrets, which are any valuable business information that provides an advantage over competitors and is not generally known in the industry. The purpose of a NDA is to limit the use and disclosure of this information by the recipient to only those purposes specified in the agreement. It also prohibits the recipient from using the information for any other purpose or sharing it with any other third party without the express written consent of the disclosing party. By protecting trade secrets with a NDA, companies can gain a competitive edge while ensuring that their secrets remain safe.</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Non-Disclosure Agreements</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+A Non-Disclosure Agreement (NDA) is a legally binding contract between two or more parties that helps protect trade secrets. The agreement outlines the information that is to remain confidential and the obligations of the parties in regards to protecting the secret information. NDAs are used to ensure that confidential information, such as client lists, proprietary formulas, manufacturing processes, or other sensitive data, is not shared with unauthorized persons or competitors. A carefully written NDA will also specify the duration of time that the trade secret should remain confidential, as well as any remedies available if the terms of the agreement are breached.</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Non-Disclosure Agreements</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+A Non-Disclosure Agreement (NDA) is a legally binding contract that requires parties to keep confidential information secret. This type of agreement is commonly used to protect trade secrets, which are confidential business information that gives an organization a competitive edge in the marketplace. NDAs can be used in a variety of situations, including when a company hires a new employee or enters into a business relationship with a third party. By signing an NDA, both parties agree not to disclose the confidential information covered by the NDA. The agreement outlines the specific details of what information must remain confidential and for how long. Violation of an NDA can result in significant legal ramifications, including fines and penalties.</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Non-Disclosure Agreements</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Non-Disclosure Agreements (NDAs) are a legal tool that companies use to protect trade secrets. They typically require employees or business partners to keep confidential any proprietary or sensitive information shared with them. This ensures that any trade secrets remain secure and do not get into the hands of competitors. NDAs also protect businesses from potential liabilities or claims related to the misuse of confidential information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Non-Disclosure Agreements</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+A Non-Disclosure Agreement (NDA) is an important legal document that can protect trade secrets. It is a contract between two parties in which one party is the discloser and the other is the recipient. The NDA outlines the confidential information that will be shared and prohibits the recipient from disclosing or using it without the discloser’s permission. This agreement can help protect valuable intellectual property and make sure that it remains confidential.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Non-Disclosure Agreements</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+A Non-Disclosure Agreement (NDA) is a legally binding contract between two parties, typically an employer and employee, that outlines confidential information shared between them. This agreement states that the confidential information must be kept secret and not disclosed to any third parties. It is used to protect trade secrets and other sensitive information related to businesses such as customer lists, financial data, product designs, and business strategies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Non-Disclosure Agreements</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Non-Disclosure Agreements (NDAs) are legally binding contracts that protect trade secrets from unauthorized use and disclosure. They define the confidential information, the obligations of parties to keep the information secret, and the responsibilities for its misuse. NDAs are an important tool for businesses that need to protect their confidential information and valuable trade secrets.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Non-Disclosure Agreements</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Non-Disclosure Agreements (NDAs) are important legal documents that protect trade secrets from unauthorized disclosure. NDAs can be used to protect confidential information, such as customer lists, product designs, software code, processes, and inventions. By agreeing to an NDA, parties are legally bound to not disclose the confidential information they have been given access to. This helps businesses keep their competitive edge by ensuring outsiders cannot gain access to their valuable trade secrets.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Intellectual Property Protection</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Query: What are the laws and regulations governing the protection of intellectual property with regard to trade secrets?</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Intellectual Property Protection</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Query: What is the legal framework for protecting trade secrets under intellectual property law?</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Intellectual Property Protection</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+What are the laws concerning intellectual property protection with regard to trade secrets?</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Intellectual Property Protection</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Query: How can I protect my trade secrets through intellectual property protection?</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Intellectual Property Protection</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Query: What are the laws and regulations regarding intellectual property protection for trade secrets?</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Intellectual Property Protection</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Trade secrets must be protected through appropriate measures to ensure that they are not subject to theft or misappropriation of Intellectual Property.</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Intellectual Property Protection</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Trade secrets are protected by Intellectual Property laws, allowing businesses to keep their confidential information safe from misuse and unauthorized disclosure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Intellectual Property Protection</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Trade secrets are legally protected under the laws of intellectual property protection.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Intellectual Property Protection</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Trade secrets are legally protected under intellectual property law, so companies must take measures to safeguard their confidential information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Intellectual Property Protection</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Companies must take appropriate steps to protect their trade secrets from misappropriation or unauthorized use through the implementation of strong intellectual property protection measures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Intellectual Property Protection</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Intellectual Property Protection with regard to Trade Secrets is a key factor in protecting businesses from unfair competition. Trade secrets protect confidential information such as a manufacturing process or a company's customer list, and are valuable assets for any business. Legal protection for trade secrets is available through both state and federal laws that provide for civil remedies and criminal punishments for anyone who misappropriates a trade secret. These laws help to safeguard a business's competitive edge by preventing others from accessing their confidential information. Companies should also take steps to protect their trade secrets by implementing physical security measures, limiting access to the information to only those who need it, and providing strict confidentiality agreements to employees, contractors, and partners.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Intellectual Property Protection</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Intellectual Property Protection with regard to Trade Secrets is an important form of legal protection afforded to owners of confidential information or trade secrets. This protection is designed to protect the owner from competitors who may try to use the trade secret, such as a recipe, process, formula, or design, to gain an unfair advantage in the market. The owner has the right to take legal action if the trade secret is disclosed without their consent, and can also pursue civil remedies for damages suffered due to the unauthorized disclosure. In addition, some countries have laws that criminalize the misappropriation of trade secrets, providing additional legal recourse for the owners.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Intellectual Property Protection</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Intellectual Property Protection with regard to Trade Secrets is a complex but important issue. Trade secrets are confidential information that give businesses a competitive advantage, and it is crucial for the owners of such information to take steps to protect it. This includes having written agreements outlining the terms of confidentiality and non-disclosure, as well as employing security measures to prevent unauthorized access or use. Additionally, companies should be aware of their intellectual property rights and make sure they are properly enforcing them. By taking proactive steps to protect trade secrets, businesses can ensure that their confidential information remains safe and secure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Intellectual Property Protection</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Intellectual property protection with regard to trade secrets is a vital part of any business strategy. Trade secrets are confidential information, such as processes, formulas, ideas, information or know-how that provides a competitive advantage to its owner or holder. Traditionally, businesses have protected their trade secrets through non-disclosure agreements and physical security measures, however, in an increasingly global economy, legal protection is also necessary. The main form of protection for trade secrets is through intellectual property law. This includes copyright, trademarks, and patents. Through these laws, businesses can protect their trade secrets from being revealed or misappropriated. Additionally, businesses may be able to seek civil damages if they can prove that the trade secret was misappropriated or improperly used. As such, intellectual property protection is essential for companies looking to protect their trade secrets and ensure the continued success of their business.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Intellectual Property Protection</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Intellectual Property Protection with regard to Trade Secrets is an important element in protecting a company's unique products, services and ideas. Trade secrets are confidential information or processes which are used by businesses to give them a competitive edge over their competitors. Trade secrets can be anything from a formula, pattern, device, compilation of data, customer lists, or process. Intellectual Property Protection laws allow companies to protect any secret information that they deem valuable. Companies can use legal remedies such as non-disclosure agreements and trade secret protection laws to protect their confidential information from being misused or stolen by other parties. By taking steps to protect their trade secrets, companies can ensure that their investments in research and development are not in vain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Intellectual Property Protection</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Intellectual property protection with regard to trade secrets is essential for businesses. It helps protect confidential business information, such as formulas, processes, techniques and strategies, from being used or disclosed without authorization. Trade secret protection provides an incentive for businesses to innovate and create new products and services. Additionally, it can be used to deter competitors from copying a company's products or services, thus preserving its competitive advantage.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Intellectual Property Protection</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Intellectual Property Protection with regard to Trade Secrets is the legal protection of confidential information that provides a competitive advantage in the marketplace. Trade secrets are protected from unauthorized disclosure, use, or misappropriation through a combination of contract law and state or federal statutes. Such protection includes non-disclosure agreements, employee training, and physical security measures such as locks and passwords.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Intellectual Property Protection</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Intellectual Property Protection with regard to Trade Secrets is the protection of confidential information and processes that provides a business with a competitive advantage. This includes protecting against unauthorized use, disclosure, or misappropriation of trade secrets by competitors or third-parties. It also involves developing measures to protect both physical and digital assets, as well as establishing policies and procedures to ensure the security of trade secrets and other confidential information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Intellectual Property Protection</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Intellectual Property Protection with regard to Trade Secrets is the process of protecting a company's confidential information and information assets from unauthorized use or disclosure. This can include measures such as implementing non-disclosure agreements, technology protection, trade secret registration and litigation. Trade secrets are a valuable asset for companies and protecting them is essential for business success.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Intellectual Property Protection</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Intellectual Property Protection (IP) is an important tool for protecting Trade Secrets, which are confidential information that provides a business with a competitive edge. Trade secrets can include formulas, recipes, processes, designs, devices, methods and strategies. IP protection such as patents, copyrights and trademarks can help to prevent others from using or disclosing trade secrets without permission. In addition, contractual agreements and non-disclosure agreements can be used to further protect trade secret information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Employee Training</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: What employee training is available with regard to trade secrets?</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Employee Training</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+What is the company's policy on Employee Training with regard to Trade Secrets?</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Employee Training</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Hello ChatGPT, I'm looking for information about employee training with regard to trade secrets. Can you help me out?</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Employee Training</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: What type of employee training is available with regard to trade secrets?</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Employee Training</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: What employee training is available for trade secrets?</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Employee Training</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employees must receive training on the proper handling of trade secrets to ensure that confidential information is not inadvertently disclosed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Employee Training</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employees should be trained on the importance of protecting trade secrets and the consequences of disclosing or misusing them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Employee Training</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employees must receive adequate training to ensure they understand the importance of protecting trade secrets.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Employee Training</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employees should receive regular training on how to handle and protect trade secrets.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Employee Training</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employees must be trained in the proper handling of trade secrets to ensure that they are kept confidential.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Employee Training</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee training with regard to trade secrets is essential for any organization, large or small. It is important for employees to understand the importance of protecting confidential information and the potential consequences of not doing so. Training should cover topics such as the definition of a trade secret, how to identify trade secrets, how to properly maintain them, and what to do in case of suspected breach. The training should also emphasize the need for clear policies and procedures related to trade secrets, including rules about who can access certain information and how it should be handled. By providing regular training on trade secrets, organizations can ensure that their employees are aware of the risks and are taking appropriate steps to protect the company’s valuable intellectual property.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Employee Training</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee training with regard to trade secrets is extremely important, as it helps to ensure that employees understand the importance of protecting confidential information and proprietary knowledge. Training should include an overview of what constitutes a trade secret and how to protect it, including how to properly handle documents, emails, and conversations that contain sensitive information. Additionally, it should also provide guidance on proper protocols for sharing information with outside organizations, such as vendors or partners, as well as explain the consequences of improperly disclosing trade secrets. Finally, employees should be made aware of any applicable laws and regulations regarding trade secrets in their jurisdiction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Employee Training</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee training with regard to trade secrets is critical for any organization that wishes to protect their confidential business information. It is important to ensure that all employees understand the importance of maintaining the confidentiality of company information, as well as the risks associated with disclosing such information to unauthorized parties. Training should cover topics such as understanding the definition of a trade secret, how to recognize it, and the consequences of violating trade secret laws. Additionally, training should include guidance on how to properly handle trade secret information, including how to securely store documents and electronic files, and how to deal with potential threats of disclosure. By providing adequate employee training on the protection of trade secrets, organizations can help ensure the security of their confidential data and reduce the risk of theft or misuse.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Employee Training</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee training is essential to ensure that company trade secrets are kept secure. Companies should provide ongoing training to all employees on the importance of protecting proprietary information and trade secrets. This includes teaching employees how to recognize confidential information, best practices for handling confidential data, and the consequences of unauthorized disclosure or misuse. Additionally, regular refresher courses should be provided to remind employees of their obligations under the law and to keep them up-to-date on any changes in regulations or policies regarding trade secrets. Finally, companies should have a well-crafted policy in place to protect trade secrets and have a comprehensive process for investigating any potential breaches.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Employee Training</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee training is an essential part of protecting trade secrets. By educating employees about the importance of confidentiality and the laws surrounding trade secrets, companies are better equipped to protect their intellectual property. Training should be tailored to the specific needs of each organization and should include topics such as what constitutes a trade secret, proper handling of confidential information, and legal implications for disclosing or misusing trade secrets. Additionally, employees should be made aware of any internal policies regarding trade secret protection and potential consequences for violating these policies. With proper training, employees will understand the value of trade secrets and how to handle them responsibly.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Employee Training</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee training is essential in ensuring that trade secrets remain secure and protected. Employees must be educated on the importance of safeguarding sensitive information, as well as the potential consequences of not doing so. Additionally, they should be instructed on the appropriate use of technology and proper security protocols to ensure that any confidential information remains private and inaccessible to unauthorized individuals.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Employee Training</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee Training with regard to Trade Secrets involves providing employees with the skills and knowledge necessary to protect confidential information, such as trade secrets. This type of training includes topics such as recognizing potential risks, developing secure processes for handling sensitive data, maintaining physical security measures, and understanding legal requirements. Employees must also be aware of the regulations surrounding trade secret protection and the potential consequences of not following them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Employee Training</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee Training is essential when it comes to protecting trade secrets. Companies should ensure that all employees receive proper training in the use and protection of trade secrets, including information on proper handling, storage, and access control practices. Training should also include best practices for identifying and responding to threats to trade secrets.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Employee Training</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee training is an important factor for protecting trade secrets. It can help employees understand the importance of keeping information confidential and the consequences of not doing so. Training should include topics such as appropriate use of resources, proper handling of confidential information, and awareness of potential legal issues that could arise from improper disclosure or use of a trade secret. Additionally, companies should regularly review and update their policies and procedures to ensure they are up to date with the latest laws and regulations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Employee Training</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Employee Training with regard to Trade Secrets is essential in order to protect valuable confidential information. It helps employees understand what constitutes a trade secret, how to protect it, and the consequences of its improper disclosure. Training should include topics such as identification of confidential information, proper handling of confidential information, policies and procedures for protecting trade secrets, and reporting requirements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Litigation</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: What is the litigation process for trade secret cases?</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Litigation</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: What is the litigation process for trade secrets?</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Litigation</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: What is the litigation process for trade secret disputes?</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Litigation</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Query: What are the key elements of a successful litigation involving trade secrets?</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Litigation</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: What is the current status of litigation related to trade secrets?</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Litigation</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The Trade Secrets Litigation is a complex and often costly process, requiring specialized legal expertise.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Litigation</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The company was involved in a lengthy litigation process to protect its trade secrets from being disclosed to competitors.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Litigation</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The Litigation process can be very complex when it comes to protecting Trade Secrets.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Litigation</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The company is seeking to protect its trade secrets through litigation in order to prevent any unauthorized disclosure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Litigation</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The company's lawyers are currently litigating the case to protect their trade secrets from being stolen by a competitor.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Litigation</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Litigation involving trade secrets is a common occurrence when companies, or individuals, believe that their trade secrets have been unlawfully disclosed or used by another party. Trade secrets are confidential information that provides a company with a competitive advantage over its competitors, and they can range from product formulas to customer lists. When a company believes their trade secret has been misappropriated, they may seek legal action in the form of a lawsuit. This type of litigation typically involves collecting evidence, interviewing witnesses, and presenting arguments to a court to prove that the defendant unlawfully acquired or used the plaintiff’s trade secret. If successful, the court can provide an injunction against further use of the trade secret, as well as damages to the plaintiff.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Litigation</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Litigation with regard to trade secrets can be complicated and costly. When a party believes their trade secret has been misappropriated, they may file a lawsuit for relief under civil law. The most common type of relief sought is an injunction, which prevents further use or disclosure of the trade secret. The party may also seek damages for any financial losses incurred due to the misappropriation. There are various state and federal laws that provide civil remedies for trade secret misappropriation. Additionally, the defendant in a trade secret lawsuit may face criminal prosecution if they knowingly and willfully acquired or disclosed the trade secret without permission. Litigation of trade secret cases can be lengthy and expensive, so it is important to work with an experienced attorney in order to protect your confidential information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Litigation</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Litigation with regard to trade secrets is when a company or organization sues another for misappropriation or theft of its proprietary information. When litigation is necessary to protect a company’s trade secrets, the primary goals of the court are to ensure that the trade secret is protected and that the defendant does not benefit from their use of the trade secret. This means that the court may order the defendant to pay damages, stop using the trade secret, and/or prevent them from disclosing it to others. In some cases, a company may seek an injunction which prohibits the defendant from using the trade secret in the future. If a company believes that its trade secrets have been stolen, they should always consult legal counsel to determine whether litigation is necessary.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Litigation</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Litigation involving trade secrets is an important and complex area of law. Trade secrets are confidential information that provides a business or individual with a competitive advantage over their competitors. Companies may resort to litigation to protect their trade secrets from being misappropriated, disclosed, or used without authorization. In general, trade secret cases involve the unauthorized use, disclosure, or misappropriation of trade secrets by an employee, former employee, or competitor. These cases often involve a great deal of investigative work in order to determine whether a trade secret has actually been misappropriated. Depending on the circumstances, litigation may also involve breach of contract claims, tortious interference with prospective economic advantage claims, and other related causes of action. Courts have held that injunctive relief is an appropriate remedy for trade secret misappropriation, as well as damages for any harm resulting from the misappropriation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Litigation</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Litigation regarding trade secrets often involves two parties in court: the party who accuses another of misappropriating a trade secret, and the party who is accused of doing so. In order to prove that a trade secret has been misappropriated, the accusing party must show that the trade secret was confidential, that the defendant had access to it, and that the defendant used the trade secret for their own economic benefit. Litigation over trade secrets can be complex and time consuming, as the court must analyze the facts, apply the law, and decide whether the trade secret was misappropriated. Additionally, the court may also need to analyze questions of intent, damages, and remedies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Litigation</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Litigation involving trade secrets typically involves claims of misappropriation, breach of contract, or other related torts. Trade secret litigation can be complex and expensive, as plaintiffs must demonstrate that their confidential information is indeed a trade secret worthy of protection, and defendants must prove that they did not improperly acquire the information or make unauthorized use of it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Litigation</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Litigation with regard to Trade Secrets involves a legal process of securing protection from the improper acquisition, disclosure, or use of confidential information by another party. It often entails the filing of a lawsuit against the accused party in order to obtain damages and injunctive relief for the violation of a trade secret agreement or the misappropriation of a company’s confidential information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Litigation</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Litigation involving trade secrets is an important part of protecting and enforcing a company’s proprietary information. It involves filing legal action against another party for misappropriation of such information. This may include seeking an injunction to prevent the use or disclosure of the trade secret, damages for any loss resulting from the misappropriation, and/or punitive damages.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Litigation</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Litigation is one of the main legal remedies available to protect trade secrets. It involves taking legal action in court to seek damages or injunctive relief for the misappropriation of trade secrets. Trade secret litigation may involve multiple parties, including the company that holds the trade secret and any third party who is accused of unlawfully acquiring or using the trade secret.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Litigation</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Litigation with regard to trade secrets can be a complicated, time-consuming and expensive process. It requires the protection and enforcement of confidential business information in court, which often requires proving that the information is valuable and has been misappropriated by another party. Companies should consider having a strong trade secret policy in place and taking measures to ensure their trade secrets are adequately protected.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Regulatory Compliance</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Query: What are the regulations around protecting trade secrets in terms of compliance?</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Regulatory Compliance</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+What is the regulatory compliance regarding trade secrets?</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Regulatory Compliance</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Regulatory Compliance with regard to Trade Secrets: What laws and regulations do companies need to follow to protect their trade secrets?</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Regulatory Compliance</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Query: What are the regulations related to trade secrets and how do they affect businesses?</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Regulatory Compliance</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Query: What are the Regulatory Compliance requirements related to Trade Secrets?</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Regulatory Compliance</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Companies must comply with all applicable laws and regulations to ensure the protection of their trade secrets.</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Regulatory Compliance</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Companies must ensure compliance with all applicable laws and regulations regarding the protection of trade secrets.</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Regulatory Compliance</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Companies must ensure that their trade secrets are protected in accordance with the applicable regulatory compliance requirements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Regulatory Compliance</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Companies must ensure that they are in compliance with all applicable laws and regulations regarding the protection of trade secrets.</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Regulatory Compliance</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Companies must ensure they are in compliance with laws and regulations related to the protection of trade secrets.</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Regulatory Compliance</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Regulatory compliance with regard to trade secrets is a set of policies, laws and regulations that apply to the protection of confidential or valuable information. Companies must ensure that their trade secrets are kept confidential and secure to protect them from theft or misappropriation. This includes a variety of measures such as implementing strong physical and digital security measures, limiting access to confidential information to those who need it, establishing procedures to monitor and update security protocols, and training employees on how to handle confidential information. In addition, companies are required to regularly review and monitor their compliance with applicable laws and regulations, including those relating to trade secrets. Finally, companies should consult legal advisors when in doubt regarding their compliance with trade secret laws.</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Regulatory Compliance</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Regulatory compliance with regard to trade secrets is a very important part of any business operation. Trade secrets are incredibly valuable assets, and it is important for businesses to ensure that they are being properly protected. Companies must ensure that their processes and procedures for protecting trade secrets comply with all applicable laws and regulations. This includes establishing policies and procedures for protecting trade secrets, informing employees about these policies, and ensuring that the information remains confidential. Additionally, companies should have protocols in place for handling disputes and litigation related to trade secrets. Compliance with the relevant laws and regulations can help protect a company’s valuable trade secrets, which can provide a significant competitive advantage.</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Regulatory Compliance</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Regulatory compliance with regard to trade secrets is an important element for businesses looking to protect their intellectual property. Companies must ensure that they have policies and procedures in place that limit access to their trade secrets, as well as measures to monitor those who have access. Companies must also be aware of any laws or regulations that might affect their ability to protect their trade secrets, such as the Defend Trade Secrets Act (DTSA) of 2016. Additionally, companies should be aware of potential vulnerabilities related to trade secrets, such as data breaches, employee mobility, and vendor relationships. Companies must take steps to mitigate these risks and ensure that their trade secrets are protected. Finally, companies should consider developing agreements with their employees and vendors to ensure that their trade secrets remain confidential.</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Regulatory Compliance</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Regulatory compliance with regard to trade secrets is a critical component of any company’s intellectual property strategy. Companies must ensure that they are compliant with all applicable laws and regulations, including those of their home country, as well as any international agreements they may be party to. Companies must understand the different facets of trade secret protection, including employee non-disclosure agreements, non-compete clauses, confidentiality provisions, and protection of confidential information. Companies should also consider using encryption and other security measures to protect their trade secrets. Finally, companies must stay informed of any relevant changes to laws or regulations in order to remain compliant. Compliance is essential to protecting valuable trade secrets and preventing costly disputes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Regulatory Compliance</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Regulatory compliance with regard to trade secrets is a critical component of protecting confidential information. Organizations must ensure that they are not only compliant with laws and regulations, but also that they have the necessary procedures in place to properly protect their trade secrets. This includes implementing policies and procedures to safeguard trade secrets, educating employees on the proper handling of such information, and preventing unauthorized access or use. Additionally, organizations should seek legal advice when necessary to ensure full compliance with applicable laws and regulations regarding trade secrets.</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Regulatory Compliance</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Regulatory compliance with regard to trade secrets is a key factor in protecting the confidential information of companies from unauthorized disclosure or use. Companies must ensure that their policies and procedures are compliant with applicable laws, including those related to intellectual property rights, labor law, and data privacy. Compliance measures for trade secrets should include appropriate confidentiality agreements, employee training, and proper security protocols.</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Regulatory Compliance</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Regulatory compliance with regard to trade secrets is a key factor in protecting the confidential information of businesses. Companies must comply with laws and regulations that protect trade secrets from being misappropriated or disclosed, including implementing appropriate measures to ensure that their trade secrets are kept confidential and secure. Additionally, companies should be aware of applicable laws and regulations in each jurisdiction in which they operate, in order to remain compliant and protect their confidential information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Regulatory Compliance</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Regulatory compliance with regard to trade secrets is essential for companies to protect their intellectual property. Companies should have a clear policy in place that outlines the security measures and procedures to guard against unauthorized use or disclosure of confidential information. This includes putting in place appropriate safeguards and protocols to protect such information, and having penalties and sanctions in place to deter any potential violations. Additionally, organizations should seek legal advice when developing or implementing any policies or procedures involving trade secrets.</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Regulatory Compliance</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Regulatory compliance with regard to trade secrets is critical for companies that wish to protect their intellectual property. Companies must ensure that they have strong policies and procedures in place to safeguard their confidential information, including monitoring employee access and use of the information. Additionally, companies should be aware of relevant laws and regulations in their country or region, such as those related to unfair competition, intellectual property rights, and contractual obligations, and make sure they are adhering to them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Trade Secrets</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Regulatory Compliance</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Regulatory Compliance with regard to Trade Secrets is essential for businesses as it ensures that confidential information is protected and kept secure. Adhering to regulations helps companies prevent the loss of critical data, maintain a competitive edge, and ensure their intellectual property remains safe. Companies should ensure that they have a robust compliance program in place to protect their trade secrets and comply with applicable laws.</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Payment Information</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: Can you provide me with information about how Payment Information with regard to Customer sensitive information is handled?</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Payment Information</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Question: How do I protect my customer's payment information?
+Answer: You should make sure to use secure encryption technology to protect your customers' payment information when collecting, transmitting, and storing data. Additionally, you should also ensure that all employees are aware of their responsibility to keep customer data safe and secure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Payment Information</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Hello ChatGPT, what are the guidelines for handling customer sensitive information regarding payments?</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Payment Information</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Query: Can you provide me with information about the Payment Information of Customer sensitive information?</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Payment Information</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Hello ChatGPT, I need to know more information about Payment Information related to Customer sensitive information. Can you help?</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Payment Information</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+We take extra care to ensure all Customer sensitive information regarding Payment Information is kept secure and confidential.</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Payment Information</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+We take the security of our customers' sensitive payment information very seriously.</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Payment Information</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+All Customer sensitive information is securely stored and encrypted to ensure the integrity of Payment Information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Payment Information</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+We take extra care to ensure that all Customer sensitive information related to Payment Information is kept secure and confidential.</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Payment Information</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Payment Information is treated with the utmost respect and all Customer sensitive information is securely stored and handled in accordance with applicable data privacy regulations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Payment Information</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Payment information is often considered to be the most sensitive customer information due to its potential for fraud and identity theft. Customers should be aware of the risks associated with sharing their payment information, as well as the steps that can be taken to protect this data. Companies should have robust security measures in place to ensure customers’ payment information is safe. This includes encrypting credit card numbers, requiring complex passwords and two-factor authentication, and limiting access to the payment system to only those with a need to know. Companies should also have policies and procedures in place to inform customers of their rights and responsibilities when it comes to protecting their payment information. Finally, companies should always adhere to Payment Card Industry (PCI) compliance standards to keep customer data safe.</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Payment Information</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Payment information is a sensitive topic for customers, as it can be used for identity theft and financial fraud. Companies must take extra precautions to ensure that customer payment information is kept safe and secure. This includes using secure encryption technologies, storing payment information in secure databases, and implementing access control systems that limit access to customer data only to authorized personnel. Payment information should also be verified on a regular basis to ensure accuracy and to detect any signs of fraud or misuse. Finally, companies must ensure that they are compliant with relevant privacy laws and regulations to protect customer data from unauthorized access.</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Payment Information</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Payment Information is highly sensitive customer information that requires secure handling. All payment information must be encrypted to ensure the security and privacy of customers’ financial details. Payment information should never be stored in plain text or shared with any unauthorized personnel. Any personnel who have access to it must be properly trained and certified in secure handling of such data. It is also important to ensure that payment information is not transmitted over public networks. Finally, all merchants must adhere to the Payment Card Industry Data Security Standard (PCI DSS) which imposes strict requirements for protecting customer payment information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Payment Information</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Payment information is often very sensitive customer information that needs to be handled with the utmost care and security. Companies must take steps to ensure that any payment information that is collected remains safe and secure, as this data can be used by malicious actors to carry out fraudulent activities or identity theft. This includes having a secure server to store the data, using encryption technology to protect it, and regularly monitoring systems for any suspicious activity. Businesses should also adhere to applicable laws and regulations relating to customer data protection, such as the General Data Protection Regulation (GDPR), to ensure that customer data is always kept confidential and secure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Payment Information</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Payment information is highly sensitive for customers, as it can be used to access their banking or credit card accounts. Therefore, when handling customer payment information, businesses must take extra steps to ensure that data is kept secure and confidential. This includes encrypting important data, using secure servers, and authorizing only verified personnel to access payment information. Companies should also have systems in place to detect and respond to any unauthorized attempts to access payment information. Additionally, customer payment information should never be stored in plain text on databases, but instead be securely encrypted. By taking these steps, companies will help protect their customers' payment information and provide peace of mind that their sensitive data is safe.</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Payment Information</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Payment Information is a critical component of customer sensitive information and must be securely stored and processed. It is important to ensure that payment methods are secure, and that customer data is kept safe. Companies should take steps to protect customer data from unauthorized access, such as encrypting customer information and using secure payment gateways. Additionally, companies should strive to provide customers with accurate and up-to-date information about their payments, and make sure that customer data is not used for any purpose other than completing the transaction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Payment Information</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Payment Information is an important part of any customer's journey. It is critical to ensure that customers' sensitive information is securely stored and processed, in order to protect their privacy and financial security. Payment Information should be treated with the highest level of respect and confidentiality, and all data must be kept secure at all times.</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Payment Information</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Payment Information is one of the most sensitive pieces of customer information. It is important to ensure that any payment information is handled securely and with the utmost privacy and confidentiality. Proper safeguards must be in place to protect customers from data breaches, identity theft, and other forms of fraud. Additionally, the payment process should be easy and intuitive for the customer to understand.</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Payment Information</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Payment Information is a critical component of customer data and must be handled with the utmost care. It is important to ensure that all customer payment information is secure, and that customer sensitive information is protected from unauthorized access. Through effective encryption technology and other security measures, organizations can keep customers' financial data safe and ensure that their personal information remains confidential.</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Payment Information</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Payment Information is a sensitive form of customer information and must be handled with the utmost care and security. Protecting this data requires careful planning, appropriate training and robust security measures. It is important to ensure that customers' payment details are kept secure at all times and know only by those who need to have access to it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Personal Data</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+How do companies protect customer sensitive information with regard to Personal Data?</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Personal Data</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Question: What is the policy for protecting Customer sensitive information with regard to Personal Data? 
+Answer: We take measures to protect customer sensitive information with regard to Personal Data. All customer data, including Personal Data, is stored in a secure database and is only accessible by authorized personnel. We also require all employees and contractors to sign a confidentiality agreement before they can access and process any customer data. Furthermore, we have implemented strong encryption protocols and other security measures to ensure the safety of customer data.</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Personal Data</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Query: What are the rules and regulations for handling customer sensitive information regarding personal data?</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Personal Data</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Query: "What are the requirements for storing and protecting Personal Data with regard to Customer sensitive information?"</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Personal Data</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Input: What is the Personal Data with regard to Customer sensitive information?
+Output: Customer sensitive information is any data that can be used to identify an individual customer, such as their name, address, credit card information, bank account numbers, Social Security number, or other financial information. Companies are required by law to protect this type of data and ensure it is only used for legitimate business purposes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Personal Data</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+We take protecting customer sensitive information very seriously and adhere to all applicable laws and regulations regarding the protection of personal data.</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Personal Data</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+We take the security of our customers' personal data and sensitive information very seriously.</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Personal Data</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+We take extra measures to ensure the security of our customers' sensitive personal data.</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Personal Data</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Companies must take appropriate measures to protect customer sensitive information, such as personal data, from unauthorized access.</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Personal Data</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The company is committed to protecting Customer sensitive information and taking appropriate measures to ensure the security of Personal Data.</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Personal Data</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The Personal Data relating to Customer sensitive information is information that can identify a customer, such as their name, address, phone number, email address, and credit card details. This data should be handled with great care to ensure its security and prevent any unauthorized access or misuse of the data. Companies must ensure that they have appropriate security measures in place to protect customer data from unauthorized access or disclosure. Additionally, companies must also ensure that any data stored on their servers is encrypted and secure. It is important for companies to take all necessary steps to protect customer sensitive data and to ensure that customers are aware of the ways their data is being used.</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Personal Data</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Personal data with regard to customer sensitive information includes information such as names, addresses, phone numbers, email addresses, credit card numbers, and other financial information. It is important to ensure that this data is stored securely and accessed only by those who need it. Companies should have procedures in place to protect customer data from unauthorized access or disclosure. This includes encryption of data, use of two-factor authentication, and restricted access controls. Companies should also regularly review their security measures to ensure that they are up-to-date and effective. Furthermore, companies should strive to be transparent about how they use customer data and should provide customers with the opportunity to opt out of sharing their data with third parties.</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Personal Data</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Personal Data with regard to Customer sensitive information is any information that identifies a customer or can be used to identify a customer, such as name, address, date of birth, social security number, email address, phone number, and credit card or bank account information. This data is often collected by companies for marketing purposes or to process payments, but it must be treated with extreme care. Companies must take reasonable steps to protect this data from unauthorized access, use, and disclosure, as well as implement appropriate technical and organizational measures to keep it secure. Companies must also comply with the applicable laws and regulations governing the collection, storage, and processing of personal data, and ensure that customers are informed of their rights with regards to this data.</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Personal Data</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Personal Data with regard to Customer sensitive information is the data that businesses and organizations collect about individuals which can be used to identify them. This data may include, but is not limited to, names, addresses, phone numbers, email addresses, Social Security numbers, credit card numbers, and other financial information. As this data is highly sensitive and easily abused, it is important for businesses and organizations to take steps to ensure the safety and protection of their customers’ personal data. This includes developing effective security measures, such as encryption and firewalls, and implementing strict access controls. Additionally, companies must provide appropriate training for staff members who handle customer data, as well as regularly review and update security procedures. Finally, companies must also have a plan in place for responding to any potential breaches or data loss.</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Personal Data</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Personal data with regard to customer sensitive information is any information that can be used to identify, contact, or locate an individual. This includes information such as name, address, phone number, email address, social security number, credit card information, bank account numbers, and other financial information. It is important for companies to protect the personal data of customers in order to maintain their trust and ensure the safety of their information. Companies should have policies and procedures in place to properly manage customer data and ensure that it is kept secure and confidential. They should also have measures in place to detect and respond to potential data breaches, and have robust data protection policies in place to help protect customer information from unauthorized access, disclosure, alteration, and destruction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Personal Data</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Personal data is any information that can be used to identify an individual, and it often includes sensitive customer information such as credit card numbers, bank account details, and home addresses. Companies must ensure that personal data is handled securely and responsibly in order to protect the rights of customers and ensure their privacy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Personal Data</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Personal Data is any information that can be used to identify an individual, such as a name, address, social security number, or financial records. With regard to customer sensitive information, personal data must be collected and handled with the utmost care, in accordance with regulations designed to protect customers’ privacy and security.</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Personal Data</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Personal Data refers to any information related to an identified or identifiable natural person. It includes information such as name, address, phone number, email address, or any other information that can be used to identify an individual. With regard to customer sensitive information, Personal Data must be carefully safeguarded and protected against unauthorized access and use. Companies must adhere to data protection laws and regulations when collecting and processing such data in order to ensure the safety of customers' personal information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Personal Data</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Personal Data is any information that can be used to identify an individual, such as name, address, phone number, email address, or financial account information. It is important to protect the privacy and security of customer sensitive information, such as credit card numbers and social security numbers, as it is highly vulnerable to misuse and fraud.</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Personal Data</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Personal data is any information that relates to an identified or identifiable individual. It includes basic information such as name, address and contact details, as well as more sensitive information like bank account numbers, medical history or biometric data. Customer sensitive information should be handled with utmost care and caution to protect the privacy of customers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Account Access</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: How do I protect my customer's sensitive information when granting account access?</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Account Access</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Query: How can customers access their sensitive information securely?</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Account Access</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: How can I ensure that customer sensitive information is secure when accessing an account?</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Account Access</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ChatGPT: How can I access customer sensitive information? 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Account Access</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+User: How can I access customer sensitive information?
+ChatGPT: You can access customer sensitive information by logging into your account with your username and password. If you do not have an account, you can register for one.</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Account Access</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Customers must always keep their account access information secure to ensure that their sensitive information remains confidential.</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Account Access</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Customers should always be aware of who has access to their sensitive information and ensure that their Account Access is secure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Account Access</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Customer sensitive information is only accessible to authorized personnel with appropriate Account Access credentials.</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Account Access</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+We have a secure system in place to protect customer sensitive information and only authorized personnel have access to it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Account Access</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Customers should always remain vigilant and take extra steps to protect their sensitive information when granting account access.</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Account Access</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Account Access to Customer sensitive information is an important component of a company's security policy. It is important to ensure that only authorized personnel have access to customer data, as this data can include confidential information such as credit card numbers and personal identification numbers. Companies must also establish procedures for securely storing and transmitting customer data in order to avoid unauthorized access. In addition, companies should also take measures to protect customer data from external threats such as hackers or viruses. Finally, it is important to develop policies for handling customer data in the event of a data breach, so that customers are aware of their rights and can take steps to protect their data.</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Account Access</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Account Access with regard to Customer sensitive information is a critical component of any customer service system. It is important to ensure that customers have secure access to their accounts and can manage their own security settings, as well as view and edit their personal information. This helps protect the customer's data and identity from malicious actors who may be trying to gain access to their account. Account Access also allows customers to securely store payment information, so they can make purchases without having to provide their financial details each time. Additionally, customers should be able to reset their passwords and receive notifications when their accounts are accessed or updated. By providing these services, businesses can ensure that their customers' sensitive information remains secure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Account Access</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Account Access with regard to Customer sensitive information is a critical part of any company's security infrastructure. Companies must ensure that only authorized personnel have access to customer data, and that all account access is monitored and logged in order to maintain the integrity of the account. Customers should also be provided with tools to protect their personal information, such as password protection and two-factor authentication. Access to customer data should be limited to those who need it for legitimate business purposes, and customers should be properly informed about how their information is being used. Finally, companies should regularly review their access controls and update them as needed to ensure that customer data remains secure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Account Access</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The Account Access for Customer sensitive information is a critical part of any business. It allows customers to access their accounts securely and with confidence. Companies must ensure that the Account Access process is secure and reliable, as customer data and information are highly sensitive and need to be safeguarded. Companies should also ensure that customers are provided with adequate security measures such as multi-factor authentication, encryption, and password protection to protect their sensitive information. Additionally, companies should regularly monitor account access activity to prevent unauthorized access and ensure that customer data is always secure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Account Access</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Account Access with regard to Customer sensitive information is an important security feature for businesses. It ensures that only authorized personnel are able to access and manage customer data. This includes details such as usernames, passwords, payment information, and other confidential information. Companies must have a secure system in place to ensure this data is kept safe from unauthorized access or misuse. Account Access also helps to protect customers from identity theft and fraud by limiting who can view and use their personal data. Companies should always strive to keep customer information secure and confidential at all times.</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Account Access</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Account Access is the process of providing customers with secure access to their sensitive information, such as financial accounts, personal data, and other confidential documents. It is a crucial part of customer service and helps protect customers from identity theft and other malicious activities. Account Access provides a secure gateway for customers to view, manage, and update their information in a safe and secure environment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Account Access</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Account Access is a critical component of customer security, allowing customers to securely access and manage their sensitive information. It requires strong authentication measures such as multi-factor authentication, encryption, and biometric identification to ensure that only authorized users are able to access customer account information. Properly managing Account Access ensures that customer data is protected from unauthorized access and misuse.</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Account Access</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Account Access is a secure and reliable way for customers to access their sensitive information. It provides secure authentication, encryption of data, and verifies user access before granting access to personal data. Account Access also allows customers to monitor activity on their accounts, view account balances and transactions, and manage security settings.</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Account Access</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Account Access provides customers with secure access to their sensitive information, including personal details and financial data. It also helps protect customer accounts from unauthorized usage and ensures that no one can access the account without permission. Account Access is an essential element of any online banking or e-commerce service.</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Account Access</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Account Access is the process of granting customers access to their sensitive information, such as bank accounts and credit cards. It allows customers to securely manage and view personal data, pay bills, and transfer funds in a secure and convenient manner. The Account Access system ensures that customers are only given access to the information they need and that any changes made to their accounts are done so in a secure manner.</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Security Codes</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Query: What are the Security Codes for Customer sensitive information?</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Security Codes</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Question: What are the security codes with regard to customer sensitive information?
+Answer: The security codes for customer sensitive information typically include encryption, authentication, and authorization protocols. Encryption is used to protect data from being intercepted or stolen, while authentication verifies that the user is who they say they are. Authorization ensures that users only have access to the resources and data that they are permitted to view or modify.</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Security Codes</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Query: What are the security codes for customer sensitive information?</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Security Codes</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+What are the security codes for customer sensitive information?</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Security Codes</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: What are the security codes for customer sensitive information?</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Security Codes</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Customer sensitive information must be protected by implementing strict security codes to ensure data integrity and confidentiality.</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>Security Codes</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Security codes must be used to protect customer sensitive information from unauthorized access.</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>Security Codes</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Security Codes must be kept confidential and never shared with anyone to ensure the protection of Customer sensitive information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>Security Codes</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Customer sensitive information must be safeguarded with appropriate security codes to protect customer data from unauthorized access.</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Security Codes</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Security Codes should be utilized to protect Customer sensitive information from unauthorized access.</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Security Codes</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Security codes are an important tool for protecting customer sensitive information. They help to ensure that any data that is collected from customers is kept secure, limiting the risk of fraud or malicious activities. Security codes can be used to authenticate customers and verify their identity when they make online purchases or access their accounts. They also provide added protection against unauthorized access to customer information, such as credit card numbers or personal information. By using security codes, organizations can ensure that customer data is kept safe and secure, providing a layer of security for both customers and the business.</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>Security Codes</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Security Codes are essential for protecting customer sensitive information. These codes are a combination of numbers, letters, and other characters that provide protection against unauthorized access to confidential data. Security Codes should be unique for each customer and changed periodically to ensure the highest level of security. Companies should also ensure that these codes are not easily guessed or cracked by hackers. Strong encryption techniques should be used to protect customer sensitive information stored in databases and other systems. Companies should also have procedures in place to detect and respond to any unauthorized attempts to gain access to customer data.</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Security Codes</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Security codes are an important layer of protection when it comes to customer sensitive information. They ensure that customer data is kept safe and secure from unauthorized access. Security codes can be used for authentication, authorization, encryption, and other security measures. For example, the code can be used to authenticate a customer's identity when logging into an account or making a purchase. Additionally, security codes can be used to encrypt customer data so that only authorized personnel can access the data. Finally, security codes can also be used as an additional layer of authorization, to ensure that only those with the proper authorization are allowed to access certain sensitive customer information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Security Codes</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Security codes are a type of security measure designed to protect customer sensitive information. They provide an extra layer of protection against unauthorized access, and help ensure that only the intended user has access to personal data. Security codes are typically used in combination with other authentication methods such as passwords or biometrics, to verify the identity of a customer before granting them access to confidential accounts or services. Security codes can be sent via text message, email, or generated randomly by a computer program. By making sure that only the customer knows their security code, businesses can protect their customers’ information from being accessed by unauthorized individuals or organizations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Security Codes</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>a paragraph</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Security codes are essential to protecting customer sensitive information. These codes are designed to prevent unauthorized access to customer data and ensure that only authorized personnel can access the information. Security codes are typically used in combination with other security measures, such as encryption, firewalls, and two-factor authentication, to create a layered approach to security. Security codes are usually randomly generated and should be changed regularly to maintain their effectiveness. Additionally, customers should be made aware of how to use security codes so that they can keep their sensitive information safe.</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Security Codes</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Security codes are a critical tool for protecting customer sensitive information, such as credit card and bank account details. They typically consist of a unique combination of letters, numbers, or symbols that must be entered to access an account or complete a transaction. Security codes can help protect customers from unauthorized access and fraud by verifying their identity and providing added protection for online payments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Security Codes</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Security codes are used to ensure that customer sensitive information remains confidential and secure. They act as an additional layer of protection when accessing personal accounts or making purchases. Security codes can be in the form of passwords, PINs, biometrics, or other measures that require the user to prove their identity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Security Codes</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Security codes are a form of authentication that helps protect customer sensitive information. They are typically used to verify the identity of the user, such as a PIN or a password, or to confirm a payment transaction. Security codes provide an extra layer of protection against fraud and unauthorized access to private data.</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Security Codes</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Security codes are an important safeguard for protecting customer sensitive information. They help to ensure that only authorized individuals have access to the data, making it more difficult for malicious actors to gain access and exploit it. Security codes also provide an additional layer of authentication when attempting to access accounts or systems, further protecting customer data.</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Security Codes</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>few words</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Security codes are an important layer of protection for customer sensitive information. They help to ensure that only authorized individuals have access to this data, keeping it safe from unauthorized use and misuse. Security codes also help to authenticate customers and verify their identity as they conduct transactions online. They can be used in combination with other security measures such as two-factor authentication, encryption, and biometrics to further secure customer data.</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Credit Card Numbers</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: What are the best practices for handling customer sensitive information, such as credit card numbers?</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Credit Card Numbers</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"What is the policy for storing Credit Card Numbers with regard to Customer sensitive information?"</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Credit Card Numbers</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Query: How should I protect my customer's sensitive information, such as credit card numbers?</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Credit Card Numbers</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Query: What are the best practices for protecting customer sensitive information, such as Credit Card Numbers?</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>Credit Card Numbers</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>an example query for chatgpt</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q: What do I need to know about protecting customer sensitive information like credit card numbers?</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Credit Card Numbers</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+It is important to protect customer sensitive information such as Credit Card Numbers at all times.</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>Credit Card Numbers</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Credit Card Numbers are highly sensitive customer information and should be handled with the utmost care.</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Credit Card Numbers</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The Credit Card Numbers are highly sensitive customer information that must be handled with extreme care.</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Credit Card Numbers</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+It is important to keep customer Credit Card Numbers secure and confidential to protect their sensitive information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Customer sensitive information</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>Credit Card Numbers</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>a sentence</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The Credit Card Numbers of customers should be treated as confidential and sensitive information.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
